--- a/rcads/data/xls/20_Items.xlsx
+++ b/rcads/data/xls/20_Items.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_20_Items"/>
   </sheets>
   <definedNames>
-    <definedName name="_20_Items">'_20_Items'!$A$1:$E$2761</definedName>
+    <definedName name="_20_Items">'_20_Items'!$A$1:$E$2901</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2761"/>
+  <dimension ref="A1:E2901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -47273,6 +47273,2398 @@
       <c r="A2761" s="0">
         <v>2925</v>
       </c>
+      <c r="B2761" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2761" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2761" s="0">
+        <v>2890</v>
+      </c>
+      <c r="E2761" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2762">
+      <c r="A2762" s="0">
+        <v>2926</v>
+      </c>
+      <c r="B2762" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2762" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2762" s="0">
+        <v>2891</v>
+      </c>
+      <c r="E2762" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2763">
+      <c r="A2763" s="0">
+        <v>2927</v>
+      </c>
+      <c r="B2763" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2763" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2763" s="0">
+        <v>2892</v>
+      </c>
+      <c r="E2763" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2764">
+      <c r="A2764" s="0">
+        <v>2928</v>
+      </c>
+      <c r="B2764" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2764" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2764" s="0">
+        <v>2893</v>
+      </c>
+      <c r="E2764" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2765">
+      <c r="A2765" s="0">
+        <v>2929</v>
+      </c>
+      <c r="B2765" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2765" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2765" s="0">
+        <v>2894</v>
+      </c>
+      <c r="E2765" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2766">
+      <c r="A2766" s="0">
+        <v>2930</v>
+      </c>
+      <c r="B2766" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2766" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2766" s="0">
+        <v>2895</v>
+      </c>
+      <c r="E2766" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2767">
+      <c r="A2767" s="0">
+        <v>2931</v>
+      </c>
+      <c r="B2767" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2767" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2767" s="0">
+        <v>2896</v>
+      </c>
+      <c r="E2767" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2768">
+      <c r="A2768" s="0">
+        <v>2932</v>
+      </c>
+      <c r="B2768" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2768" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2768" s="0">
+        <v>2897</v>
+      </c>
+      <c r="E2768" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2769">
+      <c r="A2769" s="0">
+        <v>2933</v>
+      </c>
+      <c r="B2769" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2769" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2769" s="0">
+        <v>2898</v>
+      </c>
+      <c r="E2769" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2770">
+      <c r="A2770" s="0">
+        <v>2934</v>
+      </c>
+      <c r="B2770" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2770" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2770" s="0">
+        <v>2899</v>
+      </c>
+      <c r="E2770" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2771">
+      <c r="A2771" s="0">
+        <v>2935</v>
+      </c>
+      <c r="B2771" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2771" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2771" s="0">
+        <v>2900</v>
+      </c>
+      <c r="E2771" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2772">
+      <c r="A2772" s="0">
+        <v>2936</v>
+      </c>
+      <c r="B2772" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2772" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2772" s="0">
+        <v>2901</v>
+      </c>
+      <c r="E2772" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2773">
+      <c r="A2773" s="0">
+        <v>2937</v>
+      </c>
+      <c r="B2773" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2773" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2773" s="0">
+        <v>2902</v>
+      </c>
+      <c r="E2773" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2774">
+      <c r="A2774" s="0">
+        <v>2938</v>
+      </c>
+      <c r="B2774" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2774" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2774" s="0">
+        <v>2903</v>
+      </c>
+      <c r="E2774" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2775">
+      <c r="A2775" s="0">
+        <v>2939</v>
+      </c>
+      <c r="B2775" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2775" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2775" s="0">
+        <v>2904</v>
+      </c>
+      <c r="E2775" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2776">
+      <c r="A2776" s="0">
+        <v>2940</v>
+      </c>
+      <c r="B2776" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2776" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2776" s="0">
+        <v>2905</v>
+      </c>
+      <c r="E2776" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2777">
+      <c r="A2777" s="0">
+        <v>2941</v>
+      </c>
+      <c r="B2777" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2777" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2777" s="0">
+        <v>2906</v>
+      </c>
+      <c r="E2777" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2778">
+      <c r="A2778" s="0">
+        <v>2942</v>
+      </c>
+      <c r="B2778" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2778" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2778" s="0">
+        <v>2907</v>
+      </c>
+      <c r="E2778" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2779">
+      <c r="A2779" s="0">
+        <v>2943</v>
+      </c>
+      <c r="B2779" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2779" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2779" s="0">
+        <v>2908</v>
+      </c>
+      <c r="E2779" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2780">
+      <c r="A2780" s="0">
+        <v>2944</v>
+      </c>
+      <c r="B2780" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2780" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2780" s="0">
+        <v>2909</v>
+      </c>
+      <c r="E2780" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2781">
+      <c r="A2781" s="0">
+        <v>2945</v>
+      </c>
+      <c r="B2781" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2781" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2781" s="0">
+        <v>2910</v>
+      </c>
+      <c r="E2781" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2782">
+      <c r="A2782" s="0">
+        <v>2946</v>
+      </c>
+      <c r="B2782" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2782" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2782" s="0">
+        <v>2911</v>
+      </c>
+      <c r="E2782" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2783">
+      <c r="A2783" s="0">
+        <v>2947</v>
+      </c>
+      <c r="B2783" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2783" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2783" s="0">
+        <v>2912</v>
+      </c>
+      <c r="E2783" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2784">
+      <c r="A2784" s="0">
+        <v>2948</v>
+      </c>
+      <c r="B2784" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2784" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2784" s="0">
+        <v>2913</v>
+      </c>
+      <c r="E2784" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2785">
+      <c r="A2785" s="0">
+        <v>2949</v>
+      </c>
+      <c r="B2785" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2785" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2785" s="0">
+        <v>2914</v>
+      </c>
+      <c r="E2785" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2786">
+      <c r="A2786" s="0">
+        <v>2950</v>
+      </c>
+      <c r="B2786" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2786" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2786" s="0">
+        <v>2915</v>
+      </c>
+      <c r="E2786" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2787">
+      <c r="A2787" s="0">
+        <v>2951</v>
+      </c>
+      <c r="B2787" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2787" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2787" s="0">
+        <v>2916</v>
+      </c>
+      <c r="E2787" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2788">
+      <c r="A2788" s="0">
+        <v>2952</v>
+      </c>
+      <c r="B2788" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2788" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2788" s="0">
+        <v>2917</v>
+      </c>
+      <c r="E2788" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2789">
+      <c r="A2789" s="0">
+        <v>2953</v>
+      </c>
+      <c r="B2789" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2789" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2789" s="0">
+        <v>2918</v>
+      </c>
+      <c r="E2789" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2790">
+      <c r="A2790" s="0">
+        <v>2954</v>
+      </c>
+      <c r="B2790" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2790" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2790" s="0">
+        <v>2919</v>
+      </c>
+      <c r="E2790" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2791">
+      <c r="A2791" s="0">
+        <v>2955</v>
+      </c>
+      <c r="B2791" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2791" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2791" s="0">
+        <v>2920</v>
+      </c>
+      <c r="E2791" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2792">
+      <c r="A2792" s="0">
+        <v>2956</v>
+      </c>
+      <c r="B2792" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2792" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2792" s="0">
+        <v>2921</v>
+      </c>
+      <c r="E2792" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2793">
+      <c r="A2793" s="0">
+        <v>2957</v>
+      </c>
+      <c r="B2793" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2793" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2793" s="0">
+        <v>2922</v>
+      </c>
+      <c r="E2793" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2794">
+      <c r="A2794" s="0">
+        <v>2958</v>
+      </c>
+      <c r="B2794" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2794" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2794" s="0">
+        <v>2923</v>
+      </c>
+      <c r="E2794" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2795">
+      <c r="A2795" s="0">
+        <v>2959</v>
+      </c>
+      <c r="B2795" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2795" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2795" s="0">
+        <v>2924</v>
+      </c>
+      <c r="E2795" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2796">
+      <c r="A2796" s="0">
+        <v>2960</v>
+      </c>
+      <c r="B2796" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2796" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2796" s="0">
+        <v>2925</v>
+      </c>
+      <c r="E2796" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2797">
+      <c r="A2797" s="0">
+        <v>2961</v>
+      </c>
+      <c r="B2797" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2797" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2797" s="0">
+        <v>2926</v>
+      </c>
+      <c r="E2797" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2798">
+      <c r="A2798" s="0">
+        <v>2962</v>
+      </c>
+      <c r="B2798" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2798" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2798" s="0">
+        <v>2927</v>
+      </c>
+      <c r="E2798" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2799">
+      <c r="A2799" s="0">
+        <v>2963</v>
+      </c>
+      <c r="B2799" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2799" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2799" s="0">
+        <v>2928</v>
+      </c>
+      <c r="E2799" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2800">
+      <c r="A2800" s="0">
+        <v>2964</v>
+      </c>
+      <c r="B2800" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2800" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2800" s="0">
+        <v>2929</v>
+      </c>
+      <c r="E2800" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2801">
+      <c r="A2801" s="0">
+        <v>2965</v>
+      </c>
+      <c r="B2801" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2801" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2801" s="0">
+        <v>2930</v>
+      </c>
+      <c r="E2801" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2802">
+      <c r="A2802" s="0">
+        <v>2966</v>
+      </c>
+      <c r="B2802" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2802" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2802" s="0">
+        <v>2931</v>
+      </c>
+      <c r="E2802" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2803">
+      <c r="A2803" s="0">
+        <v>2967</v>
+      </c>
+      <c r="B2803" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2803" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2803" s="0">
+        <v>2932</v>
+      </c>
+      <c r="E2803" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2804">
+      <c r="A2804" s="0">
+        <v>2968</v>
+      </c>
+      <c r="B2804" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2804" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2804" s="0">
+        <v>2933</v>
+      </c>
+      <c r="E2804" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2805">
+      <c r="A2805" s="0">
+        <v>2969</v>
+      </c>
+      <c r="B2805" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2805" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2805" s="0">
+        <v>2934</v>
+      </c>
+      <c r="E2805" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2806">
+      <c r="A2806" s="0">
+        <v>2970</v>
+      </c>
+      <c r="B2806" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2806" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2806" s="0">
+        <v>2935</v>
+      </c>
+      <c r="E2806" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2807">
+      <c r="A2807" s="0">
+        <v>2971</v>
+      </c>
+      <c r="B2807" s="0">
+        <v>2</v>
+      </c>
+      <c r="C2807" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2807" s="0">
+        <v>2936</v>
+      </c>
+      <c r="E2807" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2808">
+      <c r="A2808" s="0">
+        <v>2972</v>
+      </c>
+      <c r="B2808" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2808" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2808" s="0">
+        <v>2937</v>
+      </c>
+      <c r="E2808" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2809">
+      <c r="A2809" s="0">
+        <v>2973</v>
+      </c>
+      <c r="B2809" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2809" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2809" s="0">
+        <v>2938</v>
+      </c>
+      <c r="E2809" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2810">
+      <c r="A2810" s="0">
+        <v>2974</v>
+      </c>
+      <c r="B2810" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2810" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2810" s="0">
+        <v>2939</v>
+      </c>
+      <c r="E2810" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2811">
+      <c r="A2811" s="0">
+        <v>2975</v>
+      </c>
+      <c r="B2811" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2811" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2811" s="0">
+        <v>2940</v>
+      </c>
+      <c r="E2811" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2812">
+      <c r="A2812" s="0">
+        <v>2976</v>
+      </c>
+      <c r="B2812" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2812" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2812" s="0">
+        <v>2941</v>
+      </c>
+      <c r="E2812" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2813">
+      <c r="A2813" s="0">
+        <v>2977</v>
+      </c>
+      <c r="B2813" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2813" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2813" s="0">
+        <v>2942</v>
+      </c>
+      <c r="E2813" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2814">
+      <c r="A2814" s="0">
+        <v>2978</v>
+      </c>
+      <c r="B2814" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2814" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2814" s="0">
+        <v>2943</v>
+      </c>
+      <c r="E2814" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2815">
+      <c r="A2815" s="0">
+        <v>2979</v>
+      </c>
+      <c r="B2815" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2815" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2815" s="0">
+        <v>2944</v>
+      </c>
+      <c r="E2815" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2816">
+      <c r="A2816" s="0">
+        <v>2980</v>
+      </c>
+      <c r="B2816" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2816" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2816" s="0">
+        <v>2945</v>
+      </c>
+      <c r="E2816" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2817">
+      <c r="A2817" s="0">
+        <v>2981</v>
+      </c>
+      <c r="B2817" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2817" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2817" s="0">
+        <v>2946</v>
+      </c>
+      <c r="E2817" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2818">
+      <c r="A2818" s="0">
+        <v>2982</v>
+      </c>
+      <c r="B2818" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2818" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2818" s="0">
+        <v>2947</v>
+      </c>
+      <c r="E2818" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2819">
+      <c r="A2819" s="0">
+        <v>2983</v>
+      </c>
+      <c r="B2819" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2819" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2819" s="0">
+        <v>2948</v>
+      </c>
+      <c r="E2819" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2820">
+      <c r="A2820" s="0">
+        <v>2984</v>
+      </c>
+      <c r="B2820" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2820" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2820" s="0">
+        <v>2949</v>
+      </c>
+      <c r="E2820" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2821">
+      <c r="A2821" s="0">
+        <v>2985</v>
+      </c>
+      <c r="B2821" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2821" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2821" s="0">
+        <v>2950</v>
+      </c>
+      <c r="E2821" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2822">
+      <c r="A2822" s="0">
+        <v>2986</v>
+      </c>
+      <c r="B2822" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2822" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2822" s="0">
+        <v>2951</v>
+      </c>
+      <c r="E2822" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2823">
+      <c r="A2823" s="0">
+        <v>2987</v>
+      </c>
+      <c r="B2823" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2823" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2823" s="0">
+        <v>2952</v>
+      </c>
+      <c r="E2823" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2824">
+      <c r="A2824" s="0">
+        <v>2988</v>
+      </c>
+      <c r="B2824" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2824" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2824" s="0">
+        <v>2953</v>
+      </c>
+      <c r="E2824" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2825">
+      <c r="A2825" s="0">
+        <v>2989</v>
+      </c>
+      <c r="B2825" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2825" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2825" s="0">
+        <v>2954</v>
+      </c>
+      <c r="E2825" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2826">
+      <c r="A2826" s="0">
+        <v>2990</v>
+      </c>
+      <c r="B2826" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2826" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2826" s="0">
+        <v>2955</v>
+      </c>
+      <c r="E2826" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2827">
+      <c r="A2827" s="0">
+        <v>2991</v>
+      </c>
+      <c r="B2827" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2827" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2827" s="0">
+        <v>2956</v>
+      </c>
+      <c r="E2827" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2828">
+      <c r="A2828" s="0">
+        <v>2992</v>
+      </c>
+      <c r="B2828" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2828" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2828" s="0">
+        <v>2957</v>
+      </c>
+      <c r="E2828" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2829">
+      <c r="A2829" s="0">
+        <v>2993</v>
+      </c>
+      <c r="B2829" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2829" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2829" s="0">
+        <v>2958</v>
+      </c>
+      <c r="E2829" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2830">
+      <c r="A2830" s="0">
+        <v>2994</v>
+      </c>
+      <c r="B2830" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2830" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2830" s="0">
+        <v>2959</v>
+      </c>
+      <c r="E2830" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2831">
+      <c r="A2831" s="0">
+        <v>2995</v>
+      </c>
+      <c r="B2831" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2831" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2831" s="0">
+        <v>2960</v>
+      </c>
+      <c r="E2831" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2832">
+      <c r="A2832" s="0">
+        <v>2996</v>
+      </c>
+      <c r="B2832" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2832" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2832" s="0">
+        <v>2961</v>
+      </c>
+      <c r="E2832" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2833">
+      <c r="A2833" s="0">
+        <v>2997</v>
+      </c>
+      <c r="B2833" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2833" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2833" s="0">
+        <v>2962</v>
+      </c>
+      <c r="E2833" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2834">
+      <c r="A2834" s="0">
+        <v>2998</v>
+      </c>
+      <c r="B2834" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2834" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2834" s="0">
+        <v>2963</v>
+      </c>
+      <c r="E2834" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2835">
+      <c r="A2835" s="0">
+        <v>2999</v>
+      </c>
+      <c r="B2835" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2835" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2835" s="0">
+        <v>2964</v>
+      </c>
+      <c r="E2835" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2836">
+      <c r="A2836" s="0">
+        <v>3000</v>
+      </c>
+      <c r="B2836" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2836" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2836" s="0">
+        <v>2965</v>
+      </c>
+      <c r="E2836" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2837">
+      <c r="A2837" s="0">
+        <v>3001</v>
+      </c>
+      <c r="B2837" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2837" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2837" s="0">
+        <v>2966</v>
+      </c>
+      <c r="E2837" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2838">
+      <c r="A2838" s="0">
+        <v>3002</v>
+      </c>
+      <c r="B2838" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2838" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2838" s="0">
+        <v>2967</v>
+      </c>
+      <c r="E2838" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2839">
+      <c r="A2839" s="0">
+        <v>3003</v>
+      </c>
+      <c r="B2839" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2839" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2839" s="0">
+        <v>2968</v>
+      </c>
+      <c r="E2839" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2840">
+      <c r="A2840" s="0">
+        <v>3004</v>
+      </c>
+      <c r="B2840" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2840" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2840" s="0">
+        <v>2969</v>
+      </c>
+      <c r="E2840" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2841">
+      <c r="A2841" s="0">
+        <v>3005</v>
+      </c>
+      <c r="B2841" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2841" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2841" s="0">
+        <v>2970</v>
+      </c>
+      <c r="E2841" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2842">
+      <c r="A2842" s="0">
+        <v>3006</v>
+      </c>
+      <c r="B2842" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2842" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2842" s="0">
+        <v>2971</v>
+      </c>
+      <c r="E2842" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2843">
+      <c r="A2843" s="0">
+        <v>3007</v>
+      </c>
+      <c r="B2843" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2843" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2843" s="0">
+        <v>2972</v>
+      </c>
+      <c r="E2843" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2844">
+      <c r="A2844" s="0">
+        <v>3008</v>
+      </c>
+      <c r="B2844" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2844" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2844" s="0">
+        <v>2973</v>
+      </c>
+      <c r="E2844" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2845">
+      <c r="A2845" s="0">
+        <v>3009</v>
+      </c>
+      <c r="B2845" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2845" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2845" s="0">
+        <v>2974</v>
+      </c>
+      <c r="E2845" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2846">
+      <c r="A2846" s="0">
+        <v>3010</v>
+      </c>
+      <c r="B2846" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2846" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2846" s="0">
+        <v>2975</v>
+      </c>
+      <c r="E2846" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2847">
+      <c r="A2847" s="0">
+        <v>3011</v>
+      </c>
+      <c r="B2847" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2847" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2847" s="0">
+        <v>2976</v>
+      </c>
+      <c r="E2847" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2848">
+      <c r="A2848" s="0">
+        <v>3012</v>
+      </c>
+      <c r="B2848" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2848" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2848" s="0">
+        <v>2977</v>
+      </c>
+      <c r="E2848" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2849">
+      <c r="A2849" s="0">
+        <v>3013</v>
+      </c>
+      <c r="B2849" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2849" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2849" s="0">
+        <v>2978</v>
+      </c>
+      <c r="E2849" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2850">
+      <c r="A2850" s="0">
+        <v>3014</v>
+      </c>
+      <c r="B2850" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2850" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2850" s="0">
+        <v>2979</v>
+      </c>
+      <c r="E2850" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2851">
+      <c r="A2851" s="0">
+        <v>3015</v>
+      </c>
+      <c r="B2851" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2851" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2851" s="0">
+        <v>2980</v>
+      </c>
+      <c r="E2851" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2852">
+      <c r="A2852" s="0">
+        <v>3016</v>
+      </c>
+      <c r="B2852" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2852" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2852" s="0">
+        <v>2981</v>
+      </c>
+      <c r="E2852" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2853">
+      <c r="A2853" s="0">
+        <v>3017</v>
+      </c>
+      <c r="B2853" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2853" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2853" s="0">
+        <v>2982</v>
+      </c>
+      <c r="E2853" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2854">
+      <c r="A2854" s="0">
+        <v>3018</v>
+      </c>
+      <c r="B2854" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2854" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2854" s="0">
+        <v>2983</v>
+      </c>
+      <c r="E2854" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2855">
+      <c r="A2855" s="0">
+        <v>3019</v>
+      </c>
+      <c r="B2855" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2855" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2855" s="0">
+        <v>2984</v>
+      </c>
+      <c r="E2855" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2856">
+      <c r="A2856" s="0">
+        <v>3020</v>
+      </c>
+      <c r="B2856" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2856" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2856" s="0">
+        <v>2985</v>
+      </c>
+      <c r="E2856" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2857">
+      <c r="A2857" s="0">
+        <v>3021</v>
+      </c>
+      <c r="B2857" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2857" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2857" s="0">
+        <v>2986</v>
+      </c>
+      <c r="E2857" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2858">
+      <c r="A2858" s="0">
+        <v>3022</v>
+      </c>
+      <c r="B2858" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2858" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2858" s="0">
+        <v>2987</v>
+      </c>
+      <c r="E2858" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2859">
+      <c r="A2859" s="0">
+        <v>3023</v>
+      </c>
+      <c r="B2859" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2859" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2859" s="0">
+        <v>2988</v>
+      </c>
+      <c r="E2859" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2860">
+      <c r="A2860" s="0">
+        <v>3024</v>
+      </c>
+      <c r="B2860" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2860" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2860" s="0">
+        <v>2989</v>
+      </c>
+      <c r="E2860" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2861">
+      <c r="A2861" s="0">
+        <v>3025</v>
+      </c>
+      <c r="B2861" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2861" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2861" s="0">
+        <v>2990</v>
+      </c>
+      <c r="E2861" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2862">
+      <c r="A2862" s="0">
+        <v>3026</v>
+      </c>
+      <c r="B2862" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2862" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2862" s="0">
+        <v>2991</v>
+      </c>
+      <c r="E2862" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2863">
+      <c r="A2863" s="0">
+        <v>3027</v>
+      </c>
+      <c r="B2863" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2863" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2863" s="0">
+        <v>2992</v>
+      </c>
+      <c r="E2863" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2864">
+      <c r="A2864" s="0">
+        <v>3028</v>
+      </c>
+      <c r="B2864" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2864" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2864" s="0">
+        <v>2993</v>
+      </c>
+      <c r="E2864" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2865">
+      <c r="A2865" s="0">
+        <v>3029</v>
+      </c>
+      <c r="B2865" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2865" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2865" s="0">
+        <v>2994</v>
+      </c>
+      <c r="E2865" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2866">
+      <c r="A2866" s="0">
+        <v>3030</v>
+      </c>
+      <c r="B2866" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2866" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2866" s="0">
+        <v>2995</v>
+      </c>
+      <c r="E2866" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2867">
+      <c r="A2867" s="0">
+        <v>3031</v>
+      </c>
+      <c r="B2867" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2867" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2867" s="0">
+        <v>2996</v>
+      </c>
+      <c r="E2867" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2868">
+      <c r="A2868" s="0">
+        <v>3032</v>
+      </c>
+      <c r="B2868" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2868" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2868" s="0">
+        <v>2997</v>
+      </c>
+      <c r="E2868" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2869">
+      <c r="A2869" s="0">
+        <v>3033</v>
+      </c>
+      <c r="B2869" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2869" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2869" s="0">
+        <v>2998</v>
+      </c>
+      <c r="E2869" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2870">
+      <c r="A2870" s="0">
+        <v>3034</v>
+      </c>
+      <c r="B2870" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2870" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2870" s="0">
+        <v>2999</v>
+      </c>
+      <c r="E2870" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2871">
+      <c r="A2871" s="0">
+        <v>3035</v>
+      </c>
+      <c r="B2871" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2871" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2871" s="0">
+        <v>3000</v>
+      </c>
+      <c r="E2871" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2872">
+      <c r="A2872" s="0">
+        <v>3036</v>
+      </c>
+      <c r="B2872" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2872" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2872" s="0">
+        <v>3001</v>
+      </c>
+      <c r="E2872" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2873">
+      <c r="A2873" s="0">
+        <v>3037</v>
+      </c>
+      <c r="B2873" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2873" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2873" s="0">
+        <v>3002</v>
+      </c>
+      <c r="E2873" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2874">
+      <c r="A2874" s="0">
+        <v>3038</v>
+      </c>
+      <c r="B2874" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2874" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2874" s="0">
+        <v>3003</v>
+      </c>
+      <c r="E2874" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2875">
+      <c r="A2875" s="0">
+        <v>3039</v>
+      </c>
+      <c r="B2875" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2875" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2875" s="0">
+        <v>3004</v>
+      </c>
+      <c r="E2875" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2876">
+      <c r="A2876" s="0">
+        <v>3040</v>
+      </c>
+      <c r="B2876" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2876" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2876" s="0">
+        <v>3005</v>
+      </c>
+      <c r="E2876" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2877">
+      <c r="A2877" s="0">
+        <v>3041</v>
+      </c>
+      <c r="B2877" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2877" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2877" s="0">
+        <v>3006</v>
+      </c>
+      <c r="E2877" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2878">
+      <c r="A2878" s="0">
+        <v>3042</v>
+      </c>
+      <c r="B2878" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2878" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2878" s="0">
+        <v>3007</v>
+      </c>
+      <c r="E2878" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2879">
+      <c r="A2879" s="0">
+        <v>3043</v>
+      </c>
+      <c r="B2879" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2879" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2879" s="0">
+        <v>3008</v>
+      </c>
+      <c r="E2879" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2880">
+      <c r="A2880" s="0">
+        <v>3044</v>
+      </c>
+      <c r="B2880" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2880" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2880" s="0">
+        <v>3009</v>
+      </c>
+      <c r="E2880" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2881">
+      <c r="A2881" s="0">
+        <v>3045</v>
+      </c>
+      <c r="B2881" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2881" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2881" s="0">
+        <v>3010</v>
+      </c>
+      <c r="E2881" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2882">
+      <c r="A2882" s="0">
+        <v>3046</v>
+      </c>
+      <c r="B2882" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2882" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2882" s="0">
+        <v>3011</v>
+      </c>
+      <c r="E2882" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2883">
+      <c r="A2883" s="0">
+        <v>3047</v>
+      </c>
+      <c r="B2883" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2883" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2883" s="0">
+        <v>3012</v>
+      </c>
+      <c r="E2883" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2884">
+      <c r="A2884" s="0">
+        <v>3048</v>
+      </c>
+      <c r="B2884" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2884" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2884" s="0">
+        <v>3013</v>
+      </c>
+      <c r="E2884" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2885">
+      <c r="A2885" s="0">
+        <v>3049</v>
+      </c>
+      <c r="B2885" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2885" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2885" s="0">
+        <v>3014</v>
+      </c>
+      <c r="E2885" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2886">
+      <c r="A2886" s="0">
+        <v>3050</v>
+      </c>
+      <c r="B2886" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2886" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2886" s="0">
+        <v>3015</v>
+      </c>
+      <c r="E2886" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2887">
+      <c r="A2887" s="0">
+        <v>3051</v>
+      </c>
+      <c r="B2887" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2887" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2887" s="0">
+        <v>3016</v>
+      </c>
+      <c r="E2887" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2888">
+      <c r="A2888" s="0">
+        <v>3052</v>
+      </c>
+      <c r="B2888" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2888" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2888" s="0">
+        <v>3017</v>
+      </c>
+      <c r="E2888" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2889">
+      <c r="A2889" s="0">
+        <v>3053</v>
+      </c>
+      <c r="B2889" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2889" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2889" s="0">
+        <v>3018</v>
+      </c>
+      <c r="E2889" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2890">
+      <c r="A2890" s="0">
+        <v>3054</v>
+      </c>
+      <c r="B2890" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2890" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2890" s="0">
+        <v>3019</v>
+      </c>
+      <c r="E2890" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2891">
+      <c r="A2891" s="0">
+        <v>3055</v>
+      </c>
+      <c r="B2891" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2891" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2891" s="0">
+        <v>3020</v>
+      </c>
+      <c r="E2891" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2892">
+      <c r="A2892" s="0">
+        <v>3056</v>
+      </c>
+      <c r="B2892" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2892" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2892" s="0">
+        <v>3021</v>
+      </c>
+      <c r="E2892" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2893">
+      <c r="A2893" s="0">
+        <v>3057</v>
+      </c>
+      <c r="B2893" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2893" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2893" s="0">
+        <v>3022</v>
+      </c>
+      <c r="E2893" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2894">
+      <c r="A2894" s="0">
+        <v>3058</v>
+      </c>
+      <c r="B2894" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2894" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2894" s="0">
+        <v>3023</v>
+      </c>
+      <c r="E2894" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2895">
+      <c r="A2895" s="0">
+        <v>3059</v>
+      </c>
+      <c r="B2895" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2895" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2895" s="0">
+        <v>3024</v>
+      </c>
+      <c r="E2895" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2896">
+      <c r="A2896" s="0">
+        <v>3060</v>
+      </c>
+      <c r="B2896" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2896" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2896" s="0">
+        <v>3025</v>
+      </c>
+      <c r="E2896" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2897">
+      <c r="A2897" s="0">
+        <v>3061</v>
+      </c>
+      <c r="B2897" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2897" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2897" s="0">
+        <v>3026</v>
+      </c>
+      <c r="E2897" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2898">
+      <c r="A2898" s="0">
+        <v>3062</v>
+      </c>
+      <c r="B2898" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2898" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2898" s="0">
+        <v>3027</v>
+      </c>
+      <c r="E2898" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2899">
+      <c r="A2899" s="0">
+        <v>3063</v>
+      </c>
+      <c r="B2899" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2899" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2899" s="0">
+        <v>3028</v>
+      </c>
+      <c r="E2899" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2900">
+      <c r="A2900" s="0">
+        <v>3064</v>
+      </c>
+      <c r="B2900" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2900" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2900" s="0">
+        <v>3029</v>
+      </c>
+      <c r="E2900" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2901">
+      <c r="A2901" s="0">
+        <v>3065</v>
+      </c>
+      <c r="B2901" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2901" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2901" s="0">
+        <v>3030</v>
+      </c>
+      <c r="E2901" s="0">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rcads/data/xls/20_Items.xlsx
+++ b/rcads/data/xls/20_Items.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_20_Items"/>
   </sheets>
   <definedNames>
-    <definedName name="_20_Items">'_20_Items'!$A$1:$E$2901</definedName>
+    <definedName name="_20_Items">'_20_Items'!$A$1:$E$3183</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2901"/>
+  <dimension ref="A1:E3183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -45673,3997 +45673,8791 @@
     </row>
     <row outlineLevel="0" r="2667">
       <c r="A2667" s="0">
-        <v>2390</v>
+        <v>3067</v>
       </c>
       <c r="B2667" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2667" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2667" s="0">
-        <v>2422</v>
+        <v>3032</v>
       </c>
       <c r="E2667" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2668">
       <c r="A2668" s="0">
-        <v>2391</v>
+        <v>3068</v>
       </c>
       <c r="B2668" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2668" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2668" s="0">
-        <v>2424</v>
+        <v>3033</v>
       </c>
       <c r="E2668" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2669">
       <c r="A2669" s="0">
-        <v>2392</v>
+        <v>3069</v>
       </c>
       <c r="B2669" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2669" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2669" s="0">
-        <v>2426</v>
+        <v>3034</v>
       </c>
       <c r="E2669" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2670">
       <c r="A2670" s="0">
-        <v>2393</v>
+        <v>3070</v>
       </c>
       <c r="B2670" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2670" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2670" s="0">
-        <v>2428</v>
+        <v>3035</v>
       </c>
       <c r="E2670" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2671">
       <c r="A2671" s="0">
-        <v>2394</v>
+        <v>3071</v>
       </c>
       <c r="B2671" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2671" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2671" s="0">
-        <v>2430</v>
+        <v>3036</v>
       </c>
       <c r="E2671" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2672">
       <c r="A2672" s="0">
-        <v>2395</v>
+        <v>3072</v>
       </c>
       <c r="B2672" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2672" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2672" s="0">
-        <v>2432</v>
+        <v>3037</v>
       </c>
       <c r="E2672" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2673">
       <c r="A2673" s="0">
-        <v>2396</v>
+        <v>3073</v>
       </c>
       <c r="B2673" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2673" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2673" s="0">
-        <v>2434</v>
+        <v>3038</v>
       </c>
       <c r="E2673" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2674">
       <c r="A2674" s="0">
-        <v>2397</v>
+        <v>3074</v>
       </c>
       <c r="B2674" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2674" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2674" s="0">
-        <v>2436</v>
+        <v>3039</v>
       </c>
       <c r="E2674" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2675">
       <c r="A2675" s="0">
-        <v>2398</v>
+        <v>3075</v>
       </c>
       <c r="B2675" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2675" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2675" s="0">
-        <v>2438</v>
+        <v>3040</v>
       </c>
       <c r="E2675" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2676">
       <c r="A2676" s="0">
-        <v>2399</v>
+        <v>3076</v>
       </c>
       <c r="B2676" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2676" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2676" s="0">
-        <v>2439</v>
+        <v>3041</v>
       </c>
       <c r="E2676" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2677">
       <c r="A2677" s="0">
-        <v>2400</v>
+        <v>3077</v>
       </c>
       <c r="B2677" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2677" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2677" s="0">
-        <v>2442</v>
+        <v>3042</v>
       </c>
       <c r="E2677" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2678">
       <c r="A2678" s="0">
-        <v>2401</v>
+        <v>3078</v>
       </c>
       <c r="B2678" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2678" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2678" s="0">
-        <v>2444</v>
+        <v>3043</v>
       </c>
       <c r="E2678" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2679">
       <c r="A2679" s="0">
-        <v>2402</v>
+        <v>3079</v>
       </c>
       <c r="B2679" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2679" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2679" s="0">
-        <v>2446</v>
+        <v>3044</v>
       </c>
       <c r="E2679" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2680">
       <c r="A2680" s="0">
-        <v>2403</v>
+        <v>3080</v>
       </c>
       <c r="B2680" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2680" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2680" s="0">
-        <v>2448</v>
+        <v>3045</v>
       </c>
       <c r="E2680" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2681">
       <c r="A2681" s="0">
-        <v>2404</v>
+        <v>3081</v>
       </c>
       <c r="B2681" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2681" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2681" s="0">
-        <v>2450</v>
+        <v>3046</v>
       </c>
       <c r="E2681" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2682">
       <c r="A2682" s="0">
-        <v>2405</v>
+        <v>3082</v>
       </c>
       <c r="B2682" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2682" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2682" s="0">
-        <v>2452</v>
+        <v>3047</v>
       </c>
       <c r="E2682" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2683">
       <c r="A2683" s="0">
-        <v>2406</v>
+        <v>3083</v>
       </c>
       <c r="B2683" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2683" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2683" s="0">
-        <v>2454</v>
+        <v>3048</v>
       </c>
       <c r="E2683" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2684">
       <c r="A2684" s="0">
-        <v>2407</v>
+        <v>3084</v>
       </c>
       <c r="B2684" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2684" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2684" s="0">
-        <v>2456</v>
+        <v>3049</v>
       </c>
       <c r="E2684" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2685">
       <c r="A2685" s="0">
-        <v>2408</v>
+        <v>3085</v>
       </c>
       <c r="B2685" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2685" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2685" s="0">
-        <v>2458</v>
+        <v>3050</v>
       </c>
       <c r="E2685" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2686">
       <c r="A2686" s="0">
-        <v>2409</v>
+        <v>3086</v>
       </c>
       <c r="B2686" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2686" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2686" s="0">
-        <v>2460</v>
+        <v>3051</v>
       </c>
       <c r="E2686" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2687">
       <c r="A2687" s="0">
-        <v>2410</v>
+        <v>3087</v>
       </c>
       <c r="B2687" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2687" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2687" s="0">
-        <v>2462</v>
+        <v>3052</v>
       </c>
       <c r="E2687" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2688">
       <c r="A2688" s="0">
-        <v>2411</v>
+        <v>3088</v>
       </c>
       <c r="B2688" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2688" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2688" s="0">
-        <v>2464</v>
+        <v>3053</v>
       </c>
       <c r="E2688" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2689">
       <c r="A2689" s="0">
-        <v>2412</v>
+        <v>3089</v>
       </c>
       <c r="B2689" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2689" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2689" s="0">
-        <v>2466</v>
+        <v>3054</v>
       </c>
       <c r="E2689" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2690">
       <c r="A2690" s="0">
-        <v>2413</v>
+        <v>3090</v>
       </c>
       <c r="B2690" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C2690" s="0">
         <v>1</v>
       </c>
       <c r="D2690" s="0">
-        <v>2474</v>
+        <v>3055</v>
       </c>
       <c r="E2690" s="0">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2691">
       <c r="A2691" s="0">
-        <v>2461</v>
+        <v>3091</v>
       </c>
       <c r="B2691" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2691" s="0">
         <v>1</v>
       </c>
       <c r="D2691" s="0">
-        <v>2475</v>
+        <v>3056</v>
       </c>
       <c r="E2691" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2692">
       <c r="A2692" s="0">
-        <v>2462</v>
+        <v>3092</v>
       </c>
       <c r="B2692" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2692" s="0">
         <v>1</v>
       </c>
       <c r="D2692" s="0">
-        <v>2476</v>
+        <v>3057</v>
       </c>
       <c r="E2692" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2693">
       <c r="A2693" s="0">
-        <v>2463</v>
+        <v>3093</v>
       </c>
       <c r="B2693" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2693" s="0">
         <v>1</v>
       </c>
       <c r="D2693" s="0">
-        <v>2477</v>
+        <v>3058</v>
       </c>
       <c r="E2693" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2694">
       <c r="A2694" s="0">
-        <v>2464</v>
+        <v>3094</v>
       </c>
       <c r="B2694" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2694" s="0">
         <v>1</v>
       </c>
       <c r="D2694" s="0">
-        <v>2478</v>
+        <v>3059</v>
       </c>
       <c r="E2694" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2695">
       <c r="A2695" s="0">
-        <v>2465</v>
+        <v>3095</v>
       </c>
       <c r="B2695" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2695" s="0">
         <v>1</v>
       </c>
       <c r="D2695" s="0">
-        <v>2479</v>
+        <v>3060</v>
       </c>
       <c r="E2695" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2696">
       <c r="A2696" s="0">
-        <v>2466</v>
+        <v>3096</v>
       </c>
       <c r="B2696" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2696" s="0">
         <v>1</v>
       </c>
       <c r="D2696" s="0">
-        <v>2480</v>
+        <v>3061</v>
       </c>
       <c r="E2696" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2697">
       <c r="A2697" s="0">
-        <v>2467</v>
+        <v>3097</v>
       </c>
       <c r="B2697" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2697" s="0">
         <v>1</v>
       </c>
       <c r="D2697" s="0">
-        <v>2481</v>
+        <v>3062</v>
       </c>
       <c r="E2697" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2698">
       <c r="A2698" s="0">
-        <v>2468</v>
+        <v>3098</v>
       </c>
       <c r="B2698" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2698" s="0">
         <v>1</v>
       </c>
       <c r="D2698" s="0">
-        <v>2482</v>
+        <v>3063</v>
       </c>
       <c r="E2698" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2699">
       <c r="A2699" s="0">
-        <v>2469</v>
+        <v>3099</v>
       </c>
       <c r="B2699" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2699" s="0">
         <v>1</v>
       </c>
       <c r="D2699" s="0">
-        <v>2483</v>
+        <v>3064</v>
       </c>
       <c r="E2699" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2700">
       <c r="A2700" s="0">
-        <v>2470</v>
+        <v>3100</v>
       </c>
       <c r="B2700" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2700" s="0">
         <v>1</v>
       </c>
       <c r="D2700" s="0">
-        <v>2484</v>
+        <v>3065</v>
       </c>
       <c r="E2700" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2701">
       <c r="A2701" s="0">
-        <v>2471</v>
+        <v>3101</v>
       </c>
       <c r="B2701" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2701" s="0">
         <v>1</v>
       </c>
       <c r="D2701" s="0">
-        <v>2485</v>
+        <v>3066</v>
       </c>
       <c r="E2701" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2702">
       <c r="A2702" s="0">
-        <v>2472</v>
+        <v>3102</v>
       </c>
       <c r="B2702" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2702" s="0">
         <v>1</v>
       </c>
       <c r="D2702" s="0">
-        <v>2486</v>
+        <v>3067</v>
       </c>
       <c r="E2702" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2703">
       <c r="A2703" s="0">
-        <v>2473</v>
+        <v>3103</v>
       </c>
       <c r="B2703" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2703" s="0">
         <v>1</v>
       </c>
       <c r="D2703" s="0">
-        <v>2487</v>
+        <v>3068</v>
       </c>
       <c r="E2703" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2704">
       <c r="A2704" s="0">
-        <v>2474</v>
+        <v>3104</v>
       </c>
       <c r="B2704" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2704" s="0">
         <v>1</v>
       </c>
       <c r="D2704" s="0">
-        <v>2488</v>
+        <v>3069</v>
       </c>
       <c r="E2704" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2705">
       <c r="A2705" s="0">
-        <v>2475</v>
+        <v>3105</v>
       </c>
       <c r="B2705" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2705" s="0">
         <v>1</v>
       </c>
       <c r="D2705" s="0">
-        <v>2489</v>
+        <v>3070</v>
       </c>
       <c r="E2705" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2706">
       <c r="A2706" s="0">
-        <v>2476</v>
+        <v>3106</v>
       </c>
       <c r="B2706" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2706" s="0">
         <v>1</v>
       </c>
       <c r="D2706" s="0">
-        <v>2490</v>
+        <v>3071</v>
       </c>
       <c r="E2706" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2707">
       <c r="A2707" s="0">
-        <v>2477</v>
+        <v>3107</v>
       </c>
       <c r="B2707" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2707" s="0">
         <v>1</v>
       </c>
       <c r="D2707" s="0">
-        <v>2491</v>
+        <v>3072</v>
       </c>
       <c r="E2707" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2708">
       <c r="A2708" s="0">
-        <v>2478</v>
+        <v>3108</v>
       </c>
       <c r="B2708" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2708" s="0">
         <v>1</v>
       </c>
       <c r="D2708" s="0">
-        <v>2492</v>
+        <v>3073</v>
       </c>
       <c r="E2708" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2709">
       <c r="A2709" s="0">
-        <v>2479</v>
+        <v>3109</v>
       </c>
       <c r="B2709" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2709" s="0">
         <v>1</v>
       </c>
       <c r="D2709" s="0">
-        <v>2493</v>
+        <v>3074</v>
       </c>
       <c r="E2709" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2710">
       <c r="A2710" s="0">
-        <v>2480</v>
+        <v>3110</v>
       </c>
       <c r="B2710" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2710" s="0">
         <v>1</v>
       </c>
       <c r="D2710" s="0">
-        <v>2494</v>
+        <v>3075</v>
       </c>
       <c r="E2710" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2711">
       <c r="A2711" s="0">
-        <v>2481</v>
+        <v>3111</v>
       </c>
       <c r="B2711" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2711" s="0">
         <v>1</v>
       </c>
       <c r="D2711" s="0">
-        <v>2495</v>
+        <v>3076</v>
       </c>
       <c r="E2711" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2712">
       <c r="A2712" s="0">
-        <v>2482</v>
+        <v>3112</v>
       </c>
       <c r="B2712" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2712" s="0">
         <v>1</v>
       </c>
       <c r="D2712" s="0">
-        <v>2501</v>
+        <v>3077</v>
       </c>
       <c r="E2712" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2713">
       <c r="A2713" s="0">
-        <v>2483</v>
+        <v>3113</v>
       </c>
       <c r="B2713" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2713" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2713" s="0">
-        <v>2497</v>
+        <v>3078</v>
       </c>
       <c r="E2713" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2714">
       <c r="A2714" s="0">
-        <v>2484</v>
+        <v>3114</v>
       </c>
       <c r="B2714" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2714" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2714" s="0">
-        <v>2498</v>
+        <v>3079</v>
       </c>
       <c r="E2714" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2715">
       <c r="A2715" s="0">
-        <v>2485</v>
+        <v>3115</v>
       </c>
       <c r="B2715" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2715" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2715" s="0">
-        <v>2499</v>
+        <v>3080</v>
       </c>
       <c r="E2715" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2716">
       <c r="A2716" s="0">
-        <v>2486</v>
+        <v>3116</v>
       </c>
       <c r="B2716" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2716" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2716" s="0">
-        <v>2500</v>
+        <v>3081</v>
       </c>
       <c r="E2716" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2717">
       <c r="A2717" s="0">
-        <v>2487</v>
+        <v>3117</v>
       </c>
       <c r="B2717" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2717" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2717" s="0">
-        <v>2501</v>
+        <v>3082</v>
       </c>
       <c r="E2717" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2718">
       <c r="A2718" s="0">
-        <v>2488</v>
+        <v>3118</v>
       </c>
       <c r="B2718" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2718" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2718" s="0">
-        <v>2502</v>
+        <v>3083</v>
       </c>
       <c r="E2718" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2719">
       <c r="A2719" s="0">
-        <v>2489</v>
+        <v>3119</v>
       </c>
       <c r="B2719" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2719" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2719" s="0">
-        <v>2503</v>
+        <v>3084</v>
       </c>
       <c r="E2719" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2720">
       <c r="A2720" s="0">
-        <v>2490</v>
+        <v>3120</v>
       </c>
       <c r="B2720" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2720" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2720" s="0">
-        <v>2504</v>
+        <v>3085</v>
       </c>
       <c r="E2720" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2721">
       <c r="A2721" s="0">
-        <v>2491</v>
+        <v>3121</v>
       </c>
       <c r="B2721" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2721" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2721" s="0">
-        <v>2505</v>
+        <v>3086</v>
       </c>
       <c r="E2721" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2722">
       <c r="A2722" s="0">
-        <v>2492</v>
+        <v>3122</v>
       </c>
       <c r="B2722" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2722" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2722" s="0">
-        <v>2506</v>
+        <v>3087</v>
       </c>
       <c r="E2722" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2723">
       <c r="A2723" s="0">
-        <v>2493</v>
+        <v>3123</v>
       </c>
       <c r="B2723" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2723" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2723" s="0">
-        <v>2507</v>
+        <v>3088</v>
       </c>
       <c r="E2723" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2724">
       <c r="A2724" s="0">
-        <v>2494</v>
+        <v>3124</v>
       </c>
       <c r="B2724" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2724" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2724" s="0">
-        <v>2508</v>
+        <v>3089</v>
       </c>
       <c r="E2724" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2725">
       <c r="A2725" s="0">
-        <v>2495</v>
+        <v>3125</v>
       </c>
       <c r="B2725" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2725" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2725" s="0">
-        <v>2509</v>
+        <v>3090</v>
       </c>
       <c r="E2725" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2726">
       <c r="A2726" s="0">
-        <v>2496</v>
+        <v>3126</v>
       </c>
       <c r="B2726" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2726" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2726" s="0">
-        <v>2510</v>
+        <v>3091</v>
       </c>
       <c r="E2726" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2727">
       <c r="A2727" s="0">
-        <v>2497</v>
+        <v>3127</v>
       </c>
       <c r="B2727" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2727" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2727" s="0">
-        <v>2511</v>
+        <v>3092</v>
       </c>
       <c r="E2727" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2728">
       <c r="A2728" s="0">
-        <v>2498</v>
+        <v>3128</v>
       </c>
       <c r="B2728" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2728" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2728" s="0">
-        <v>2512</v>
+        <v>3093</v>
       </c>
       <c r="E2728" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2729">
       <c r="A2729" s="0">
-        <v>2499</v>
+        <v>3129</v>
       </c>
       <c r="B2729" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2729" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2729" s="0">
-        <v>2513</v>
+        <v>3094</v>
       </c>
       <c r="E2729" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2730">
       <c r="A2730" s="0">
-        <v>2500</v>
+        <v>3130</v>
       </c>
       <c r="B2730" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2730" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2730" s="0">
-        <v>2514</v>
+        <v>3095</v>
       </c>
       <c r="E2730" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2731">
       <c r="A2731" s="0">
-        <v>2501</v>
+        <v>3131</v>
       </c>
       <c r="B2731" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2731" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2731" s="0">
-        <v>2515</v>
+        <v>3096</v>
       </c>
       <c r="E2731" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2732">
       <c r="A2732" s="0">
-        <v>2502</v>
+        <v>3132</v>
       </c>
       <c r="B2732" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2732" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2732" s="0">
-        <v>2516</v>
+        <v>3097</v>
       </c>
       <c r="E2732" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2733">
       <c r="A2733" s="0">
-        <v>2503</v>
+        <v>3133</v>
       </c>
       <c r="B2733" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2733" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2733" s="0">
-        <v>2517</v>
+        <v>3098</v>
       </c>
       <c r="E2733" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2734">
       <c r="A2734" s="0">
-        <v>2504</v>
+        <v>3134</v>
       </c>
       <c r="B2734" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2734" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2734" s="0">
-        <v>2518</v>
+        <v>3099</v>
       </c>
       <c r="E2734" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2735">
       <c r="A2735" s="0">
-        <v>2505</v>
+        <v>3135</v>
       </c>
       <c r="B2735" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2735" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2735" s="0">
-        <v>2519</v>
+        <v>3100</v>
       </c>
       <c r="E2735" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2736">
       <c r="A2736" s="0">
-        <v>2506</v>
+        <v>3136</v>
       </c>
       <c r="B2736" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2736" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2736" s="0">
-        <v>2520</v>
+        <v>3101</v>
       </c>
       <c r="E2736" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2737">
       <c r="A2737" s="0">
-        <v>2507</v>
+        <v>3137</v>
       </c>
       <c r="B2737" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2737" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2737" s="0">
-        <v>2521</v>
+        <v>3102</v>
       </c>
       <c r="E2737" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2738">
       <c r="A2738" s="0">
-        <v>2508</v>
+        <v>3138</v>
       </c>
       <c r="B2738" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2738" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2738" s="0">
-        <v>2522</v>
+        <v>3103</v>
       </c>
       <c r="E2738" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2739">
       <c r="A2739" s="0">
-        <v>2903</v>
+        <v>3139</v>
       </c>
       <c r="B2739" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2739" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2739" s="0">
-        <v>2868</v>
+        <v>3104</v>
       </c>
       <c r="E2739" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2740">
       <c r="A2740" s="0">
-        <v>2904</v>
+        <v>3140</v>
       </c>
       <c r="B2740" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2740" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2740" s="0">
-        <v>2869</v>
+        <v>3105</v>
       </c>
       <c r="E2740" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2741">
       <c r="A2741" s="0">
-        <v>2905</v>
+        <v>3141</v>
       </c>
       <c r="B2741" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2741" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2741" s="0">
-        <v>2870</v>
+        <v>3106</v>
       </c>
       <c r="E2741" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2742">
       <c r="A2742" s="0">
-        <v>2906</v>
+        <v>3142</v>
       </c>
       <c r="B2742" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2742" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2742" s="0">
-        <v>2871</v>
+        <v>3107</v>
       </c>
       <c r="E2742" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2743">
       <c r="A2743" s="0">
-        <v>2907</v>
+        <v>3143</v>
       </c>
       <c r="B2743" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2743" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2743" s="0">
-        <v>2872</v>
+        <v>3108</v>
       </c>
       <c r="E2743" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2744">
       <c r="A2744" s="0">
-        <v>2908</v>
+        <v>3144</v>
       </c>
       <c r="B2744" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2744" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2744" s="0">
-        <v>2873</v>
+        <v>3109</v>
       </c>
       <c r="E2744" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2745">
       <c r="A2745" s="0">
-        <v>2909</v>
+        <v>3145</v>
       </c>
       <c r="B2745" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2745" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2745" s="0">
-        <v>2874</v>
+        <v>3110</v>
       </c>
       <c r="E2745" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2746">
       <c r="A2746" s="0">
-        <v>2910</v>
+        <v>3146</v>
       </c>
       <c r="B2746" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2746" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2746" s="0">
-        <v>2875</v>
+        <v>3111</v>
       </c>
       <c r="E2746" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2747">
       <c r="A2747" s="0">
-        <v>2911</v>
+        <v>3147</v>
       </c>
       <c r="B2747" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2747" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2747" s="0">
-        <v>2876</v>
+        <v>3112</v>
       </c>
       <c r="E2747" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2748">
       <c r="A2748" s="0">
-        <v>2912</v>
+        <v>3148</v>
       </c>
       <c r="B2748" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2748" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2748" s="0">
-        <v>2877</v>
+        <v>3113</v>
       </c>
       <c r="E2748" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2749">
       <c r="A2749" s="0">
-        <v>2913</v>
+        <v>3149</v>
       </c>
       <c r="B2749" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2749" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2749" s="0">
-        <v>2878</v>
+        <v>3114</v>
       </c>
       <c r="E2749" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2750">
       <c r="A2750" s="0">
-        <v>2914</v>
+        <v>3150</v>
       </c>
       <c r="B2750" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2750" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2750" s="0">
-        <v>2879</v>
+        <v>3115</v>
       </c>
       <c r="E2750" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2751">
       <c r="A2751" s="0">
-        <v>2915</v>
+        <v>3151</v>
       </c>
       <c r="B2751" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2751" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2751" s="0">
-        <v>2880</v>
+        <v>3116</v>
       </c>
       <c r="E2751" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2752">
       <c r="A2752" s="0">
-        <v>2916</v>
+        <v>3152</v>
       </c>
       <c r="B2752" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2752" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2752" s="0">
-        <v>2881</v>
+        <v>3117</v>
       </c>
       <c r="E2752" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2753">
       <c r="A2753" s="0">
-        <v>2917</v>
+        <v>3153</v>
       </c>
       <c r="B2753" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2753" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2753" s="0">
-        <v>2882</v>
+        <v>3118</v>
       </c>
       <c r="E2753" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2754">
       <c r="A2754" s="0">
-        <v>2918</v>
+        <v>3154</v>
       </c>
       <c r="B2754" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2754" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2754" s="0">
-        <v>2883</v>
+        <v>3119</v>
       </c>
       <c r="E2754" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2755">
       <c r="A2755" s="0">
-        <v>2919</v>
+        <v>3155</v>
       </c>
       <c r="B2755" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2755" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2755" s="0">
-        <v>2884</v>
+        <v>3120</v>
       </c>
       <c r="E2755" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2756">
       <c r="A2756" s="0">
-        <v>2920</v>
+        <v>3156</v>
       </c>
       <c r="B2756" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2756" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2756" s="0">
-        <v>2885</v>
+        <v>3121</v>
       </c>
       <c r="E2756" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2757">
       <c r="A2757" s="0">
-        <v>2921</v>
+        <v>3157</v>
       </c>
       <c r="B2757" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2757" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2757" s="0">
-        <v>2886</v>
+        <v>3122</v>
       </c>
       <c r="E2757" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2758">
       <c r="A2758" s="0">
-        <v>2922</v>
+        <v>3158</v>
       </c>
       <c r="B2758" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2758" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2758" s="0">
-        <v>2887</v>
+        <v>3123</v>
       </c>
       <c r="E2758" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2759">
       <c r="A2759" s="0">
-        <v>2923</v>
+        <v>3159</v>
       </c>
       <c r="B2759" s="0">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C2759" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2759" s="0">
-        <v>2888</v>
+        <v>3124</v>
       </c>
       <c r="E2759" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="2760">
       <c r="A2760" s="0">
-        <v>2924</v>
+        <v>2390</v>
       </c>
       <c r="B2760" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2760" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2760" s="0">
-        <v>2889</v>
+        <v>2422</v>
       </c>
       <c r="E2760" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2761">
       <c r="A2761" s="0">
-        <v>2925</v>
+        <v>2391</v>
       </c>
       <c r="B2761" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2761" s="0">
         <v>2</v>
       </c>
       <c r="D2761" s="0">
-        <v>2890</v>
+        <v>2424</v>
       </c>
       <c r="E2761" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2762">
       <c r="A2762" s="0">
-        <v>2926</v>
+        <v>2392</v>
       </c>
       <c r="B2762" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2762" s="0">
         <v>2</v>
       </c>
       <c r="D2762" s="0">
-        <v>2891</v>
+        <v>2426</v>
       </c>
       <c r="E2762" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2763">
       <c r="A2763" s="0">
-        <v>2927</v>
+        <v>2393</v>
       </c>
       <c r="B2763" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2763" s="0">
         <v>2</v>
       </c>
       <c r="D2763" s="0">
-        <v>2892</v>
+        <v>2428</v>
       </c>
       <c r="E2763" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2764">
       <c r="A2764" s="0">
-        <v>2928</v>
+        <v>2394</v>
       </c>
       <c r="B2764" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2764" s="0">
         <v>2</v>
       </c>
       <c r="D2764" s="0">
-        <v>2893</v>
+        <v>2430</v>
       </c>
       <c r="E2764" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2765">
       <c r="A2765" s="0">
-        <v>2929</v>
+        <v>2395</v>
       </c>
       <c r="B2765" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2765" s="0">
         <v>2</v>
       </c>
       <c r="D2765" s="0">
-        <v>2894</v>
+        <v>2432</v>
       </c>
       <c r="E2765" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2766">
       <c r="A2766" s="0">
-        <v>2930</v>
+        <v>2396</v>
       </c>
       <c r="B2766" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2766" s="0">
         <v>2</v>
       </c>
       <c r="D2766" s="0">
-        <v>2895</v>
+        <v>2434</v>
       </c>
       <c r="E2766" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2767">
       <c r="A2767" s="0">
-        <v>2931</v>
+        <v>2397</v>
       </c>
       <c r="B2767" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2767" s="0">
         <v>2</v>
       </c>
       <c r="D2767" s="0">
-        <v>2896</v>
+        <v>2436</v>
       </c>
       <c r="E2767" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2768">
       <c r="A2768" s="0">
-        <v>2932</v>
+        <v>2398</v>
       </c>
       <c r="B2768" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2768" s="0">
         <v>2</v>
       </c>
       <c r="D2768" s="0">
-        <v>2897</v>
+        <v>2438</v>
       </c>
       <c r="E2768" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2769">
       <c r="A2769" s="0">
-        <v>2933</v>
+        <v>2399</v>
       </c>
       <c r="B2769" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2769" s="0">
         <v>2</v>
       </c>
       <c r="D2769" s="0">
-        <v>2898</v>
+        <v>2439</v>
       </c>
       <c r="E2769" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2770">
       <c r="A2770" s="0">
-        <v>2934</v>
+        <v>2400</v>
       </c>
       <c r="B2770" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2770" s="0">
         <v>2</v>
       </c>
       <c r="D2770" s="0">
-        <v>2899</v>
+        <v>2442</v>
       </c>
       <c r="E2770" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2771">
       <c r="A2771" s="0">
-        <v>2935</v>
+        <v>2401</v>
       </c>
       <c r="B2771" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2771" s="0">
         <v>2</v>
       </c>
       <c r="D2771" s="0">
-        <v>2900</v>
+        <v>2444</v>
       </c>
       <c r="E2771" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2772">
       <c r="A2772" s="0">
-        <v>2936</v>
+        <v>2402</v>
       </c>
       <c r="B2772" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2772" s="0">
         <v>2</v>
       </c>
       <c r="D2772" s="0">
-        <v>2901</v>
+        <v>2446</v>
       </c>
       <c r="E2772" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2773">
       <c r="A2773" s="0">
-        <v>2937</v>
+        <v>2403</v>
       </c>
       <c r="B2773" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2773" s="0">
         <v>2</v>
       </c>
       <c r="D2773" s="0">
-        <v>2902</v>
+        <v>2448</v>
       </c>
       <c r="E2773" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2774">
       <c r="A2774" s="0">
-        <v>2938</v>
+        <v>2404</v>
       </c>
       <c r="B2774" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2774" s="0">
         <v>2</v>
       </c>
       <c r="D2774" s="0">
-        <v>2903</v>
+        <v>2450</v>
       </c>
       <c r="E2774" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2775">
       <c r="A2775" s="0">
-        <v>2939</v>
+        <v>2405</v>
       </c>
       <c r="B2775" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2775" s="0">
         <v>2</v>
       </c>
       <c r="D2775" s="0">
-        <v>2904</v>
+        <v>2452</v>
       </c>
       <c r="E2775" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2776">
       <c r="A2776" s="0">
-        <v>2940</v>
+        <v>2406</v>
       </c>
       <c r="B2776" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2776" s="0">
         <v>2</v>
       </c>
       <c r="D2776" s="0">
-        <v>2905</v>
+        <v>2454</v>
       </c>
       <c r="E2776" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2777">
       <c r="A2777" s="0">
-        <v>2941</v>
+        <v>2407</v>
       </c>
       <c r="B2777" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2777" s="0">
         <v>2</v>
       </c>
       <c r="D2777" s="0">
-        <v>2906</v>
+        <v>2456</v>
       </c>
       <c r="E2777" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2778">
       <c r="A2778" s="0">
-        <v>2942</v>
+        <v>2408</v>
       </c>
       <c r="B2778" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2778" s="0">
         <v>2</v>
       </c>
       <c r="D2778" s="0">
-        <v>2907</v>
+        <v>2458</v>
       </c>
       <c r="E2778" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2779">
       <c r="A2779" s="0">
-        <v>2943</v>
+        <v>2409</v>
       </c>
       <c r="B2779" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2779" s="0">
         <v>2</v>
       </c>
       <c r="D2779" s="0">
-        <v>2908</v>
+        <v>2460</v>
       </c>
       <c r="E2779" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2780">
       <c r="A2780" s="0">
-        <v>2944</v>
+        <v>2410</v>
       </c>
       <c r="B2780" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2780" s="0">
         <v>2</v>
       </c>
       <c r="D2780" s="0">
-        <v>2909</v>
+        <v>2462</v>
       </c>
       <c r="E2780" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2781">
       <c r="A2781" s="0">
-        <v>2945</v>
+        <v>2411</v>
       </c>
       <c r="B2781" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2781" s="0">
         <v>2</v>
       </c>
       <c r="D2781" s="0">
-        <v>2910</v>
+        <v>2464</v>
       </c>
       <c r="E2781" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2782">
       <c r="A2782" s="0">
-        <v>2946</v>
+        <v>2412</v>
       </c>
       <c r="B2782" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2782" s="0">
         <v>2</v>
       </c>
       <c r="D2782" s="0">
-        <v>2911</v>
+        <v>2466</v>
       </c>
       <c r="E2782" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2783">
       <c r="A2783" s="0">
-        <v>2947</v>
+        <v>2413</v>
       </c>
       <c r="B2783" s="0">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2783" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2783" s="0">
-        <v>2912</v>
+        <v>2474</v>
       </c>
       <c r="E2783" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="2784">
       <c r="A2784" s="0">
-        <v>2948</v>
+        <v>2461</v>
       </c>
       <c r="B2784" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2784" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2784" s="0">
-        <v>2913</v>
+        <v>2475</v>
       </c>
       <c r="E2784" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2785">
       <c r="A2785" s="0">
-        <v>2949</v>
+        <v>2462</v>
       </c>
       <c r="B2785" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2785" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2785" s="0">
-        <v>2914</v>
+        <v>2476</v>
       </c>
       <c r="E2785" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2786">
       <c r="A2786" s="0">
-        <v>2950</v>
+        <v>2463</v>
       </c>
       <c r="B2786" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2786" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2786" s="0">
-        <v>2915</v>
+        <v>2477</v>
       </c>
       <c r="E2786" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2787">
       <c r="A2787" s="0">
-        <v>2951</v>
+        <v>2464</v>
       </c>
       <c r="B2787" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2787" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2787" s="0">
-        <v>2916</v>
+        <v>2478</v>
       </c>
       <c r="E2787" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2788">
       <c r="A2788" s="0">
-        <v>2952</v>
+        <v>2465</v>
       </c>
       <c r="B2788" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2788" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2788" s="0">
-        <v>2917</v>
+        <v>2479</v>
       </c>
       <c r="E2788" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2789">
       <c r="A2789" s="0">
-        <v>2953</v>
+        <v>2466</v>
       </c>
       <c r="B2789" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2789" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2789" s="0">
-        <v>2918</v>
+        <v>2480</v>
       </c>
       <c r="E2789" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2790">
       <c r="A2790" s="0">
-        <v>2954</v>
+        <v>2467</v>
       </c>
       <c r="B2790" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2790" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2790" s="0">
-        <v>2919</v>
+        <v>2481</v>
       </c>
       <c r="E2790" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2791">
       <c r="A2791" s="0">
-        <v>2955</v>
+        <v>2468</v>
       </c>
       <c r="B2791" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2791" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2791" s="0">
-        <v>2920</v>
+        <v>2482</v>
       </c>
       <c r="E2791" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2792">
       <c r="A2792" s="0">
-        <v>2956</v>
+        <v>2469</v>
       </c>
       <c r="B2792" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2792" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2792" s="0">
-        <v>2921</v>
+        <v>2483</v>
       </c>
       <c r="E2792" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2793">
       <c r="A2793" s="0">
-        <v>2957</v>
+        <v>2470</v>
       </c>
       <c r="B2793" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2793" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2793" s="0">
-        <v>2922</v>
+        <v>2484</v>
       </c>
       <c r="E2793" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2794">
       <c r="A2794" s="0">
-        <v>2958</v>
+        <v>2471</v>
       </c>
       <c r="B2794" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2794" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2794" s="0">
-        <v>2923</v>
+        <v>2485</v>
       </c>
       <c r="E2794" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2795">
       <c r="A2795" s="0">
-        <v>2959</v>
+        <v>2472</v>
       </c>
       <c r="B2795" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2795" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2795" s="0">
-        <v>2924</v>
+        <v>2486</v>
       </c>
       <c r="E2795" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2796">
       <c r="A2796" s="0">
-        <v>2960</v>
+        <v>2473</v>
       </c>
       <c r="B2796" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2796" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2796" s="0">
-        <v>2925</v>
+        <v>2487</v>
       </c>
       <c r="E2796" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2797">
       <c r="A2797" s="0">
-        <v>2961</v>
+        <v>2474</v>
       </c>
       <c r="B2797" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2797" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2797" s="0">
-        <v>2926</v>
+        <v>2488</v>
       </c>
       <c r="E2797" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2798">
       <c r="A2798" s="0">
-        <v>2962</v>
+        <v>2475</v>
       </c>
       <c r="B2798" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2798" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2798" s="0">
-        <v>2927</v>
+        <v>2489</v>
       </c>
       <c r="E2798" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2799">
       <c r="A2799" s="0">
-        <v>2963</v>
+        <v>2476</v>
       </c>
       <c r="B2799" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2799" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2799" s="0">
-        <v>2928</v>
+        <v>2490</v>
       </c>
       <c r="E2799" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2800">
       <c r="A2800" s="0">
-        <v>2964</v>
+        <v>2477</v>
       </c>
       <c r="B2800" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2800" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2800" s="0">
-        <v>2929</v>
+        <v>2491</v>
       </c>
       <c r="E2800" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2801">
       <c r="A2801" s="0">
-        <v>2965</v>
+        <v>2478</v>
       </c>
       <c r="B2801" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2801" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2801" s="0">
-        <v>2930</v>
+        <v>2492</v>
       </c>
       <c r="E2801" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2802">
       <c r="A2802" s="0">
-        <v>2966</v>
+        <v>2479</v>
       </c>
       <c r="B2802" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2802" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2802" s="0">
-        <v>2931</v>
+        <v>2493</v>
       </c>
       <c r="E2802" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2803">
       <c r="A2803" s="0">
-        <v>2967</v>
+        <v>2480</v>
       </c>
       <c r="B2803" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2803" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2803" s="0">
-        <v>2932</v>
+        <v>2494</v>
       </c>
       <c r="E2803" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2804">
       <c r="A2804" s="0">
-        <v>2968</v>
+        <v>2481</v>
       </c>
       <c r="B2804" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2804" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2804" s="0">
-        <v>2933</v>
+        <v>2495</v>
       </c>
       <c r="E2804" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2805">
       <c r="A2805" s="0">
-        <v>2969</v>
+        <v>2482</v>
       </c>
       <c r="B2805" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2805" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2805" s="0">
-        <v>2934</v>
+        <v>2501</v>
       </c>
       <c r="E2805" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2806">
       <c r="A2806" s="0">
-        <v>2970</v>
+        <v>2483</v>
       </c>
       <c r="B2806" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2806" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2806" s="0">
-        <v>2935</v>
+        <v>2497</v>
       </c>
       <c r="E2806" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2807">
       <c r="A2807" s="0">
-        <v>2971</v>
+        <v>2484</v>
       </c>
       <c r="B2807" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C2807" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2807" s="0">
-        <v>2936</v>
+        <v>2498</v>
       </c>
       <c r="E2807" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2808">
       <c r="A2808" s="0">
-        <v>2972</v>
+        <v>2485</v>
       </c>
       <c r="B2808" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2808" s="0">
         <v>1</v>
       </c>
       <c r="D2808" s="0">
-        <v>2937</v>
+        <v>2499</v>
       </c>
       <c r="E2808" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2809">
       <c r="A2809" s="0">
-        <v>2973</v>
+        <v>2486</v>
       </c>
       <c r="B2809" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2809" s="0">
         <v>1</v>
       </c>
       <c r="D2809" s="0">
-        <v>2938</v>
+        <v>2500</v>
       </c>
       <c r="E2809" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2810">
       <c r="A2810" s="0">
-        <v>2974</v>
+        <v>2487</v>
       </c>
       <c r="B2810" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2810" s="0">
         <v>1</v>
       </c>
       <c r="D2810" s="0">
-        <v>2939</v>
+        <v>2501</v>
       </c>
       <c r="E2810" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2811">
       <c r="A2811" s="0">
-        <v>2975</v>
+        <v>2488</v>
       </c>
       <c r="B2811" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2811" s="0">
         <v>1</v>
       </c>
       <c r="D2811" s="0">
-        <v>2940</v>
+        <v>2502</v>
       </c>
       <c r="E2811" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2812">
       <c r="A2812" s="0">
-        <v>2976</v>
+        <v>2489</v>
       </c>
       <c r="B2812" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2812" s="0">
         <v>1</v>
       </c>
       <c r="D2812" s="0">
-        <v>2941</v>
+        <v>2503</v>
       </c>
       <c r="E2812" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2813">
       <c r="A2813" s="0">
-        <v>2977</v>
+        <v>2490</v>
       </c>
       <c r="B2813" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2813" s="0">
         <v>1</v>
       </c>
       <c r="D2813" s="0">
-        <v>2942</v>
+        <v>2504</v>
       </c>
       <c r="E2813" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2814">
       <c r="A2814" s="0">
-        <v>2978</v>
+        <v>2491</v>
       </c>
       <c r="B2814" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2814" s="0">
         <v>1</v>
       </c>
       <c r="D2814" s="0">
-        <v>2943</v>
+        <v>2505</v>
       </c>
       <c r="E2814" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2815">
       <c r="A2815" s="0">
-        <v>2979</v>
+        <v>2492</v>
       </c>
       <c r="B2815" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2815" s="0">
         <v>1</v>
       </c>
       <c r="D2815" s="0">
-        <v>2944</v>
+        <v>2506</v>
       </c>
       <c r="E2815" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2816">
       <c r="A2816" s="0">
-        <v>2980</v>
+        <v>2493</v>
       </c>
       <c r="B2816" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2816" s="0">
         <v>1</v>
       </c>
       <c r="D2816" s="0">
-        <v>2945</v>
+        <v>2507</v>
       </c>
       <c r="E2816" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2817">
       <c r="A2817" s="0">
-        <v>2981</v>
+        <v>2494</v>
       </c>
       <c r="B2817" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2817" s="0">
         <v>1</v>
       </c>
       <c r="D2817" s="0">
-        <v>2946</v>
+        <v>2508</v>
       </c>
       <c r="E2817" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2818">
       <c r="A2818" s="0">
-        <v>2982</v>
+        <v>2495</v>
       </c>
       <c r="B2818" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2818" s="0">
         <v>1</v>
       </c>
       <c r="D2818" s="0">
-        <v>2947</v>
+        <v>2509</v>
       </c>
       <c r="E2818" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2819">
       <c r="A2819" s="0">
-        <v>2983</v>
+        <v>2496</v>
       </c>
       <c r="B2819" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2819" s="0">
         <v>1</v>
       </c>
       <c r="D2819" s="0">
-        <v>2948</v>
+        <v>2510</v>
       </c>
       <c r="E2819" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2820">
       <c r="A2820" s="0">
-        <v>2984</v>
+        <v>2497</v>
       </c>
       <c r="B2820" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2820" s="0">
         <v>1</v>
       </c>
       <c r="D2820" s="0">
-        <v>2949</v>
+        <v>2511</v>
       </c>
       <c r="E2820" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2821">
       <c r="A2821" s="0">
-        <v>2985</v>
+        <v>2498</v>
       </c>
       <c r="B2821" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2821" s="0">
         <v>1</v>
       </c>
       <c r="D2821" s="0">
-        <v>2950</v>
+        <v>2512</v>
       </c>
       <c r="E2821" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2822">
       <c r="A2822" s="0">
-        <v>2986</v>
+        <v>2499</v>
       </c>
       <c r="B2822" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2822" s="0">
         <v>1</v>
       </c>
       <c r="D2822" s="0">
-        <v>2951</v>
+        <v>2513</v>
       </c>
       <c r="E2822" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2823">
       <c r="A2823" s="0">
-        <v>2987</v>
+        <v>2500</v>
       </c>
       <c r="B2823" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2823" s="0">
         <v>1</v>
       </c>
       <c r="D2823" s="0">
-        <v>2952</v>
+        <v>2514</v>
       </c>
       <c r="E2823" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2824">
       <c r="A2824" s="0">
-        <v>2988</v>
+        <v>2501</v>
       </c>
       <c r="B2824" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2824" s="0">
         <v>1</v>
       </c>
       <c r="D2824" s="0">
-        <v>2953</v>
+        <v>2515</v>
       </c>
       <c r="E2824" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2825">
       <c r="A2825" s="0">
-        <v>2989</v>
+        <v>2502</v>
       </c>
       <c r="B2825" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2825" s="0">
         <v>1</v>
       </c>
       <c r="D2825" s="0">
-        <v>2954</v>
+        <v>2516</v>
       </c>
       <c r="E2825" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2826">
       <c r="A2826" s="0">
-        <v>2990</v>
+        <v>2503</v>
       </c>
       <c r="B2826" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2826" s="0">
         <v>1</v>
       </c>
       <c r="D2826" s="0">
-        <v>2955</v>
+        <v>2517</v>
       </c>
       <c r="E2826" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2827">
       <c r="A2827" s="0">
-        <v>2991</v>
+        <v>2504</v>
       </c>
       <c r="B2827" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2827" s="0">
         <v>1</v>
       </c>
       <c r="D2827" s="0">
-        <v>2956</v>
+        <v>2518</v>
       </c>
       <c r="E2827" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2828">
       <c r="A2828" s="0">
-        <v>2992</v>
+        <v>2505</v>
       </c>
       <c r="B2828" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2828" s="0">
         <v>1</v>
       </c>
       <c r="D2828" s="0">
-        <v>2957</v>
+        <v>2519</v>
       </c>
       <c r="E2828" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2829">
       <c r="A2829" s="0">
-        <v>2993</v>
+        <v>2506</v>
       </c>
       <c r="B2829" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2829" s="0">
         <v>1</v>
       </c>
       <c r="D2829" s="0">
-        <v>2958</v>
+        <v>2520</v>
       </c>
       <c r="E2829" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2830">
       <c r="A2830" s="0">
-        <v>2994</v>
+        <v>2507</v>
       </c>
       <c r="B2830" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2830" s="0">
         <v>1</v>
       </c>
       <c r="D2830" s="0">
-        <v>2959</v>
+        <v>2521</v>
       </c>
       <c r="E2830" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="2831">
       <c r="A2831" s="0">
-        <v>2995</v>
+        <v>2508</v>
       </c>
       <c r="B2831" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2831" s="0">
         <v>1</v>
       </c>
       <c r="D2831" s="0">
-        <v>2960</v>
+        <v>2522</v>
       </c>
       <c r="E2831" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row outlineLevel="0" r="2832">
       <c r="A2832" s="0">
-        <v>2996</v>
+        <v>2903</v>
       </c>
       <c r="B2832" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2832" s="0">
         <v>1</v>
       </c>
       <c r="D2832" s="0">
-        <v>2961</v>
+        <v>2868</v>
       </c>
       <c r="E2832" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2833">
       <c r="A2833" s="0">
-        <v>2997</v>
+        <v>2904</v>
       </c>
       <c r="B2833" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2833" s="0">
         <v>1</v>
       </c>
       <c r="D2833" s="0">
-        <v>2962</v>
+        <v>2869</v>
       </c>
       <c r="E2833" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2834">
       <c r="A2834" s="0">
-        <v>2998</v>
+        <v>2905</v>
       </c>
       <c r="B2834" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2834" s="0">
         <v>1</v>
       </c>
       <c r="D2834" s="0">
-        <v>2963</v>
+        <v>2870</v>
       </c>
       <c r="E2834" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2835">
       <c r="A2835" s="0">
-        <v>2999</v>
+        <v>2906</v>
       </c>
       <c r="B2835" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2835" s="0">
         <v>1</v>
       </c>
       <c r="D2835" s="0">
-        <v>2964</v>
+        <v>2871</v>
       </c>
       <c r="E2835" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2836">
       <c r="A2836" s="0">
-        <v>3000</v>
+        <v>2907</v>
       </c>
       <c r="B2836" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2836" s="0">
         <v>1</v>
       </c>
       <c r="D2836" s="0">
-        <v>2965</v>
+        <v>2872</v>
       </c>
       <c r="E2836" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2837">
       <c r="A2837" s="0">
-        <v>3001</v>
+        <v>2908</v>
       </c>
       <c r="B2837" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2837" s="0">
         <v>1</v>
       </c>
       <c r="D2837" s="0">
-        <v>2966</v>
+        <v>2873</v>
       </c>
       <c r="E2837" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2838">
       <c r="A2838" s="0">
-        <v>3002</v>
+        <v>2909</v>
       </c>
       <c r="B2838" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2838" s="0">
         <v>1</v>
       </c>
       <c r="D2838" s="0">
-        <v>2967</v>
+        <v>2874</v>
       </c>
       <c r="E2838" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2839">
       <c r="A2839" s="0">
-        <v>3003</v>
+        <v>2910</v>
       </c>
       <c r="B2839" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2839" s="0">
         <v>1</v>
       </c>
       <c r="D2839" s="0">
-        <v>2968</v>
+        <v>2875</v>
       </c>
       <c r="E2839" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2840">
       <c r="A2840" s="0">
-        <v>3004</v>
+        <v>2911</v>
       </c>
       <c r="B2840" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2840" s="0">
         <v>1</v>
       </c>
       <c r="D2840" s="0">
-        <v>2969</v>
+        <v>2876</v>
       </c>
       <c r="E2840" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2841">
       <c r="A2841" s="0">
-        <v>3005</v>
+        <v>2912</v>
       </c>
       <c r="B2841" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2841" s="0">
         <v>1</v>
       </c>
       <c r="D2841" s="0">
-        <v>2970</v>
+        <v>2877</v>
       </c>
       <c r="E2841" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2842">
       <c r="A2842" s="0">
-        <v>3006</v>
+        <v>2913</v>
       </c>
       <c r="B2842" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2842" s="0">
         <v>1</v>
       </c>
       <c r="D2842" s="0">
-        <v>2971</v>
+        <v>2878</v>
       </c>
       <c r="E2842" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2843">
       <c r="A2843" s="0">
-        <v>3007</v>
+        <v>2914</v>
       </c>
       <c r="B2843" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2843" s="0">
         <v>1</v>
       </c>
       <c r="D2843" s="0">
-        <v>2972</v>
+        <v>2879</v>
       </c>
       <c r="E2843" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2844">
       <c r="A2844" s="0">
-        <v>3008</v>
+        <v>2915</v>
       </c>
       <c r="B2844" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2844" s="0">
         <v>1</v>
       </c>
       <c r="D2844" s="0">
-        <v>2973</v>
+        <v>2880</v>
       </c>
       <c r="E2844" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2845">
       <c r="A2845" s="0">
-        <v>3009</v>
+        <v>2916</v>
       </c>
       <c r="B2845" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2845" s="0">
         <v>1</v>
       </c>
       <c r="D2845" s="0">
-        <v>2974</v>
+        <v>2881</v>
       </c>
       <c r="E2845" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2846">
       <c r="A2846" s="0">
-        <v>3010</v>
+        <v>2917</v>
       </c>
       <c r="B2846" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2846" s="0">
         <v>1</v>
       </c>
       <c r="D2846" s="0">
-        <v>2975</v>
+        <v>2882</v>
       </c>
       <c r="E2846" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2847">
       <c r="A2847" s="0">
-        <v>3011</v>
+        <v>2918</v>
       </c>
       <c r="B2847" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2847" s="0">
         <v>1</v>
       </c>
       <c r="D2847" s="0">
-        <v>2976</v>
+        <v>2883</v>
       </c>
       <c r="E2847" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2848">
       <c r="A2848" s="0">
-        <v>3012</v>
+        <v>2919</v>
       </c>
       <c r="B2848" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2848" s="0">
         <v>1</v>
       </c>
       <c r="D2848" s="0">
-        <v>2977</v>
+        <v>2884</v>
       </c>
       <c r="E2848" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2849">
       <c r="A2849" s="0">
-        <v>3013</v>
+        <v>2920</v>
       </c>
       <c r="B2849" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2849" s="0">
         <v>1</v>
       </c>
       <c r="D2849" s="0">
-        <v>2978</v>
+        <v>2885</v>
       </c>
       <c r="E2849" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2850">
       <c r="A2850" s="0">
-        <v>3014</v>
+        <v>2921</v>
       </c>
       <c r="B2850" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2850" s="0">
         <v>1</v>
       </c>
       <c r="D2850" s="0">
-        <v>2979</v>
+        <v>2886</v>
       </c>
       <c r="E2850" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2851">
       <c r="A2851" s="0">
-        <v>3015</v>
+        <v>2922</v>
       </c>
       <c r="B2851" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2851" s="0">
         <v>1</v>
       </c>
       <c r="D2851" s="0">
-        <v>2980</v>
+        <v>2887</v>
       </c>
       <c r="E2851" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2852">
       <c r="A2852" s="0">
-        <v>3016</v>
+        <v>2923</v>
       </c>
       <c r="B2852" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2852" s="0">
         <v>1</v>
       </c>
       <c r="D2852" s="0">
-        <v>2981</v>
+        <v>2888</v>
       </c>
       <c r="E2852" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2853">
       <c r="A2853" s="0">
-        <v>3017</v>
+        <v>2924</v>
       </c>
       <c r="B2853" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C2853" s="0">
         <v>1</v>
       </c>
       <c r="D2853" s="0">
-        <v>2982</v>
+        <v>2889</v>
       </c>
       <c r="E2853" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="2854">
       <c r="A2854" s="0">
-        <v>3018</v>
+        <v>2925</v>
       </c>
       <c r="B2854" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2854" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2854" s="0">
-        <v>2983</v>
+        <v>2890</v>
       </c>
       <c r="E2854" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2855">
       <c r="A2855" s="0">
-        <v>3019</v>
+        <v>2926</v>
       </c>
       <c r="B2855" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2855" s="0">
         <v>2</v>
       </c>
       <c r="D2855" s="0">
-        <v>2984</v>
+        <v>2891</v>
       </c>
       <c r="E2855" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2856">
       <c r="A2856" s="0">
-        <v>3020</v>
+        <v>2927</v>
       </c>
       <c r="B2856" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2856" s="0">
         <v>2</v>
       </c>
       <c r="D2856" s="0">
-        <v>2985</v>
+        <v>2892</v>
       </c>
       <c r="E2856" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2857">
       <c r="A2857" s="0">
-        <v>3021</v>
+        <v>2928</v>
       </c>
       <c r="B2857" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2857" s="0">
         <v>2</v>
       </c>
       <c r="D2857" s="0">
-        <v>2986</v>
+        <v>2893</v>
       </c>
       <c r="E2857" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2858">
       <c r="A2858" s="0">
-        <v>3022</v>
+        <v>2929</v>
       </c>
       <c r="B2858" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2858" s="0">
         <v>2</v>
       </c>
       <c r="D2858" s="0">
-        <v>2987</v>
+        <v>2894</v>
       </c>
       <c r="E2858" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2859">
       <c r="A2859" s="0">
-        <v>3023</v>
+        <v>2930</v>
       </c>
       <c r="B2859" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2859" s="0">
         <v>2</v>
       </c>
       <c r="D2859" s="0">
-        <v>2988</v>
+        <v>2895</v>
       </c>
       <c r="E2859" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2860">
       <c r="A2860" s="0">
-        <v>3024</v>
+        <v>2931</v>
       </c>
       <c r="B2860" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2860" s="0">
         <v>2</v>
       </c>
       <c r="D2860" s="0">
-        <v>2989</v>
+        <v>2896</v>
       </c>
       <c r="E2860" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2861">
       <c r="A2861" s="0">
-        <v>3025</v>
+        <v>2932</v>
       </c>
       <c r="B2861" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2861" s="0">
         <v>2</v>
       </c>
       <c r="D2861" s="0">
-        <v>2990</v>
+        <v>2897</v>
       </c>
       <c r="E2861" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2862">
       <c r="A2862" s="0">
-        <v>3026</v>
+        <v>2933</v>
       </c>
       <c r="B2862" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2862" s="0">
         <v>2</v>
       </c>
       <c r="D2862" s="0">
-        <v>2991</v>
+        <v>2898</v>
       </c>
       <c r="E2862" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2863">
       <c r="A2863" s="0">
-        <v>3027</v>
+        <v>2934</v>
       </c>
       <c r="B2863" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2863" s="0">
         <v>2</v>
       </c>
       <c r="D2863" s="0">
-        <v>2992</v>
+        <v>2899</v>
       </c>
       <c r="E2863" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2864">
       <c r="A2864" s="0">
-        <v>3028</v>
+        <v>2935</v>
       </c>
       <c r="B2864" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2864" s="0">
         <v>2</v>
       </c>
       <c r="D2864" s="0">
-        <v>2993</v>
+        <v>2900</v>
       </c>
       <c r="E2864" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2865">
       <c r="A2865" s="0">
-        <v>3029</v>
+        <v>2936</v>
       </c>
       <c r="B2865" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2865" s="0">
         <v>2</v>
       </c>
       <c r="D2865" s="0">
-        <v>2994</v>
+        <v>2901</v>
       </c>
       <c r="E2865" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2866">
       <c r="A2866" s="0">
-        <v>3030</v>
+        <v>2937</v>
       </c>
       <c r="B2866" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2866" s="0">
         <v>2</v>
       </c>
       <c r="D2866" s="0">
-        <v>2995</v>
+        <v>2902</v>
       </c>
       <c r="E2866" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2867">
       <c r="A2867" s="0">
-        <v>3031</v>
+        <v>2938</v>
       </c>
       <c r="B2867" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2867" s="0">
         <v>2</v>
       </c>
       <c r="D2867" s="0">
-        <v>2996</v>
+        <v>2903</v>
       </c>
       <c r="E2867" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2868">
       <c r="A2868" s="0">
-        <v>3032</v>
+        <v>2939</v>
       </c>
       <c r="B2868" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2868" s="0">
         <v>2</v>
       </c>
       <c r="D2868" s="0">
-        <v>2997</v>
+        <v>2904</v>
       </c>
       <c r="E2868" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2869">
       <c r="A2869" s="0">
-        <v>3033</v>
+        <v>2940</v>
       </c>
       <c r="B2869" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2869" s="0">
         <v>2</v>
       </c>
       <c r="D2869" s="0">
-        <v>2998</v>
+        <v>2905</v>
       </c>
       <c r="E2869" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2870">
       <c r="A2870" s="0">
-        <v>3034</v>
+        <v>2941</v>
       </c>
       <c r="B2870" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2870" s="0">
         <v>2</v>
       </c>
       <c r="D2870" s="0">
-        <v>2999</v>
+        <v>2906</v>
       </c>
       <c r="E2870" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2871">
       <c r="A2871" s="0">
-        <v>3035</v>
+        <v>2942</v>
       </c>
       <c r="B2871" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2871" s="0">
         <v>2</v>
       </c>
       <c r="D2871" s="0">
-        <v>3000</v>
+        <v>2907</v>
       </c>
       <c r="E2871" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2872">
       <c r="A2872" s="0">
-        <v>3036</v>
+        <v>2943</v>
       </c>
       <c r="B2872" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2872" s="0">
         <v>2</v>
       </c>
       <c r="D2872" s="0">
-        <v>3001</v>
+        <v>2908</v>
       </c>
       <c r="E2872" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2873">
       <c r="A2873" s="0">
-        <v>3037</v>
+        <v>2944</v>
       </c>
       <c r="B2873" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2873" s="0">
         <v>2</v>
       </c>
       <c r="D2873" s="0">
-        <v>3002</v>
+        <v>2909</v>
       </c>
       <c r="E2873" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2874">
       <c r="A2874" s="0">
-        <v>3038</v>
+        <v>2945</v>
       </c>
       <c r="B2874" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2874" s="0">
         <v>2</v>
       </c>
       <c r="D2874" s="0">
-        <v>3003</v>
+        <v>2910</v>
       </c>
       <c r="E2874" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2875">
       <c r="A2875" s="0">
-        <v>3039</v>
+        <v>2946</v>
       </c>
       <c r="B2875" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2875" s="0">
         <v>2</v>
       </c>
       <c r="D2875" s="0">
-        <v>3004</v>
+        <v>2911</v>
       </c>
       <c r="E2875" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2876">
       <c r="A2876" s="0">
-        <v>3040</v>
+        <v>2947</v>
       </c>
       <c r="B2876" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2876" s="0">
         <v>2</v>
       </c>
       <c r="D2876" s="0">
-        <v>3005</v>
+        <v>2912</v>
       </c>
       <c r="E2876" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2877">
       <c r="A2877" s="0">
-        <v>3041</v>
+        <v>2948</v>
       </c>
       <c r="B2877" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2877" s="0">
         <v>2</v>
       </c>
       <c r="D2877" s="0">
-        <v>3006</v>
+        <v>2913</v>
       </c>
       <c r="E2877" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2878">
       <c r="A2878" s="0">
-        <v>3042</v>
+        <v>2949</v>
       </c>
       <c r="B2878" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2878" s="0">
         <v>2</v>
       </c>
       <c r="D2878" s="0">
-        <v>3007</v>
+        <v>2914</v>
       </c>
       <c r="E2878" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2879">
       <c r="A2879" s="0">
-        <v>3043</v>
+        <v>2950</v>
       </c>
       <c r="B2879" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2879" s="0">
         <v>2</v>
       </c>
       <c r="D2879" s="0">
-        <v>3008</v>
+        <v>2915</v>
       </c>
       <c r="E2879" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2880">
       <c r="A2880" s="0">
-        <v>3044</v>
+        <v>2951</v>
       </c>
       <c r="B2880" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2880" s="0">
         <v>2</v>
       </c>
       <c r="D2880" s="0">
-        <v>3009</v>
+        <v>2916</v>
       </c>
       <c r="E2880" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2881">
       <c r="A2881" s="0">
-        <v>3045</v>
+        <v>2952</v>
       </c>
       <c r="B2881" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2881" s="0">
         <v>2</v>
       </c>
       <c r="D2881" s="0">
-        <v>3010</v>
+        <v>2917</v>
       </c>
       <c r="E2881" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2882">
       <c r="A2882" s="0">
-        <v>3046</v>
+        <v>2953</v>
       </c>
       <c r="B2882" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2882" s="0">
         <v>2</v>
       </c>
       <c r="D2882" s="0">
-        <v>3011</v>
+        <v>2918</v>
       </c>
       <c r="E2882" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2883">
       <c r="A2883" s="0">
-        <v>3047</v>
+        <v>2954</v>
       </c>
       <c r="B2883" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2883" s="0">
         <v>2</v>
       </c>
       <c r="D2883" s="0">
-        <v>3012</v>
+        <v>2919</v>
       </c>
       <c r="E2883" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2884">
       <c r="A2884" s="0">
-        <v>3048</v>
+        <v>2955</v>
       </c>
       <c r="B2884" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2884" s="0">
         <v>2</v>
       </c>
       <c r="D2884" s="0">
-        <v>3013</v>
+        <v>2920</v>
       </c>
       <c r="E2884" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2885">
       <c r="A2885" s="0">
-        <v>3049</v>
+        <v>2956</v>
       </c>
       <c r="B2885" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2885" s="0">
         <v>2</v>
       </c>
       <c r="D2885" s="0">
-        <v>3014</v>
+        <v>2921</v>
       </c>
       <c r="E2885" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2886">
       <c r="A2886" s="0">
-        <v>3050</v>
+        <v>2957</v>
       </c>
       <c r="B2886" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2886" s="0">
         <v>2</v>
       </c>
       <c r="D2886" s="0">
-        <v>3015</v>
+        <v>2922</v>
       </c>
       <c r="E2886" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2887">
       <c r="A2887" s="0">
-        <v>3051</v>
+        <v>2958</v>
       </c>
       <c r="B2887" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2887" s="0">
         <v>2</v>
       </c>
       <c r="D2887" s="0">
-        <v>3016</v>
+        <v>2923</v>
       </c>
       <c r="E2887" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2888">
       <c r="A2888" s="0">
-        <v>3052</v>
+        <v>2959</v>
       </c>
       <c r="B2888" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2888" s="0">
         <v>2</v>
       </c>
       <c r="D2888" s="0">
-        <v>3017</v>
+        <v>2924</v>
       </c>
       <c r="E2888" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2889">
       <c r="A2889" s="0">
-        <v>3053</v>
+        <v>2960</v>
       </c>
       <c r="B2889" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2889" s="0">
         <v>2</v>
       </c>
       <c r="D2889" s="0">
-        <v>3018</v>
+        <v>2925</v>
       </c>
       <c r="E2889" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2890">
       <c r="A2890" s="0">
-        <v>3054</v>
+        <v>2961</v>
       </c>
       <c r="B2890" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2890" s="0">
         <v>2</v>
       </c>
       <c r="D2890" s="0">
-        <v>3019</v>
+        <v>2926</v>
       </c>
       <c r="E2890" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2891">
       <c r="A2891" s="0">
-        <v>3055</v>
+        <v>2962</v>
       </c>
       <c r="B2891" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2891" s="0">
         <v>2</v>
       </c>
       <c r="D2891" s="0">
-        <v>3020</v>
+        <v>2927</v>
       </c>
       <c r="E2891" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2892">
       <c r="A2892" s="0">
-        <v>3056</v>
+        <v>2963</v>
       </c>
       <c r="B2892" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2892" s="0">
         <v>2</v>
       </c>
       <c r="D2892" s="0">
-        <v>3021</v>
+        <v>2928</v>
       </c>
       <c r="E2892" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2893">
       <c r="A2893" s="0">
-        <v>3057</v>
+        <v>2964</v>
       </c>
       <c r="B2893" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2893" s="0">
         <v>2</v>
       </c>
       <c r="D2893" s="0">
-        <v>3022</v>
+        <v>2929</v>
       </c>
       <c r="E2893" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2894">
       <c r="A2894" s="0">
-        <v>3058</v>
+        <v>2965</v>
       </c>
       <c r="B2894" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2894" s="0">
         <v>2</v>
       </c>
       <c r="D2894" s="0">
-        <v>3023</v>
+        <v>2930</v>
       </c>
       <c r="E2894" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2895">
       <c r="A2895" s="0">
-        <v>3059</v>
+        <v>2966</v>
       </c>
       <c r="B2895" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2895" s="0">
         <v>2</v>
       </c>
       <c r="D2895" s="0">
-        <v>3024</v>
+        <v>2931</v>
       </c>
       <c r="E2895" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2896">
       <c r="A2896" s="0">
-        <v>3060</v>
+        <v>2967</v>
       </c>
       <c r="B2896" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2896" s="0">
         <v>2</v>
       </c>
       <c r="D2896" s="0">
-        <v>3025</v>
+        <v>2932</v>
       </c>
       <c r="E2896" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2897">
       <c r="A2897" s="0">
-        <v>3061</v>
+        <v>2968</v>
       </c>
       <c r="B2897" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2897" s="0">
         <v>2</v>
       </c>
       <c r="D2897" s="0">
-        <v>3026</v>
+        <v>2933</v>
       </c>
       <c r="E2897" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2898">
       <c r="A2898" s="0">
-        <v>3062</v>
+        <v>2969</v>
       </c>
       <c r="B2898" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2898" s="0">
         <v>2</v>
       </c>
       <c r="D2898" s="0">
-        <v>3027</v>
+        <v>2934</v>
       </c>
       <c r="E2898" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2899">
       <c r="A2899" s="0">
-        <v>3063</v>
+        <v>2970</v>
       </c>
       <c r="B2899" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2899" s="0">
         <v>2</v>
       </c>
       <c r="D2899" s="0">
-        <v>3028</v>
+        <v>2935</v>
       </c>
       <c r="E2899" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2900">
       <c r="A2900" s="0">
-        <v>3064</v>
+        <v>2971</v>
       </c>
       <c r="B2900" s="0">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C2900" s="0">
         <v>2</v>
       </c>
       <c r="D2900" s="0">
-        <v>3029</v>
+        <v>2936</v>
       </c>
       <c r="E2900" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="2901">
       <c r="A2901" s="0">
-        <v>3065</v>
+        <v>2972</v>
       </c>
       <c r="B2901" s="0">
         <v>38</v>
       </c>
       <c r="C2901" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2901" s="0">
-        <v>3030</v>
+        <v>2937</v>
       </c>
       <c r="E2901" s="0">
         <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2902">
+      <c r="A2902" s="0">
+        <v>2973</v>
+      </c>
+      <c r="B2902" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2902" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2902" s="0">
+        <v>2938</v>
+      </c>
+      <c r="E2902" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2903">
+      <c r="A2903" s="0">
+        <v>2974</v>
+      </c>
+      <c r="B2903" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2903" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2903" s="0">
+        <v>2939</v>
+      </c>
+      <c r="E2903" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2904">
+      <c r="A2904" s="0">
+        <v>2975</v>
+      </c>
+      <c r="B2904" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2904" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2904" s="0">
+        <v>2940</v>
+      </c>
+      <c r="E2904" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2905">
+      <c r="A2905" s="0">
+        <v>2976</v>
+      </c>
+      <c r="B2905" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2905" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2905" s="0">
+        <v>2941</v>
+      </c>
+      <c r="E2905" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2906">
+      <c r="A2906" s="0">
+        <v>2977</v>
+      </c>
+      <c r="B2906" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2906" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2906" s="0">
+        <v>2942</v>
+      </c>
+      <c r="E2906" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2907">
+      <c r="A2907" s="0">
+        <v>2978</v>
+      </c>
+      <c r="B2907" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2907" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2907" s="0">
+        <v>2943</v>
+      </c>
+      <c r="E2907" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2908">
+      <c r="A2908" s="0">
+        <v>2979</v>
+      </c>
+      <c r="B2908" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2908" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2908" s="0">
+        <v>2944</v>
+      </c>
+      <c r="E2908" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2909">
+      <c r="A2909" s="0">
+        <v>2980</v>
+      </c>
+      <c r="B2909" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2909" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2909" s="0">
+        <v>2945</v>
+      </c>
+      <c r="E2909" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2910">
+      <c r="A2910" s="0">
+        <v>2981</v>
+      </c>
+      <c r="B2910" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2910" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2910" s="0">
+        <v>2946</v>
+      </c>
+      <c r="E2910" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2911">
+      <c r="A2911" s="0">
+        <v>2982</v>
+      </c>
+      <c r="B2911" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2911" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2911" s="0">
+        <v>2947</v>
+      </c>
+      <c r="E2911" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2912">
+      <c r="A2912" s="0">
+        <v>2983</v>
+      </c>
+      <c r="B2912" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2912" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2912" s="0">
+        <v>2948</v>
+      </c>
+      <c r="E2912" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2913">
+      <c r="A2913" s="0">
+        <v>2984</v>
+      </c>
+      <c r="B2913" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2913" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2913" s="0">
+        <v>2949</v>
+      </c>
+      <c r="E2913" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2914">
+      <c r="A2914" s="0">
+        <v>2985</v>
+      </c>
+      <c r="B2914" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2914" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2914" s="0">
+        <v>2950</v>
+      </c>
+      <c r="E2914" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2915">
+      <c r="A2915" s="0">
+        <v>2986</v>
+      </c>
+      <c r="B2915" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2915" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2915" s="0">
+        <v>2951</v>
+      </c>
+      <c r="E2915" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2916">
+      <c r="A2916" s="0">
+        <v>2987</v>
+      </c>
+      <c r="B2916" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2916" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2916" s="0">
+        <v>2952</v>
+      </c>
+      <c r="E2916" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2917">
+      <c r="A2917" s="0">
+        <v>2988</v>
+      </c>
+      <c r="B2917" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2917" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2917" s="0">
+        <v>2953</v>
+      </c>
+      <c r="E2917" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2918">
+      <c r="A2918" s="0">
+        <v>2989</v>
+      </c>
+      <c r="B2918" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2918" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2918" s="0">
+        <v>2954</v>
+      </c>
+      <c r="E2918" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2919">
+      <c r="A2919" s="0">
+        <v>2990</v>
+      </c>
+      <c r="B2919" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2919" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2919" s="0">
+        <v>2955</v>
+      </c>
+      <c r="E2919" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2920">
+      <c r="A2920" s="0">
+        <v>2991</v>
+      </c>
+      <c r="B2920" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2920" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2920" s="0">
+        <v>2956</v>
+      </c>
+      <c r="E2920" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2921">
+      <c r="A2921" s="0">
+        <v>2992</v>
+      </c>
+      <c r="B2921" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2921" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2921" s="0">
+        <v>2957</v>
+      </c>
+      <c r="E2921" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2922">
+      <c r="A2922" s="0">
+        <v>2993</v>
+      </c>
+      <c r="B2922" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2922" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2922" s="0">
+        <v>2958</v>
+      </c>
+      <c r="E2922" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2923">
+      <c r="A2923" s="0">
+        <v>2994</v>
+      </c>
+      <c r="B2923" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2923" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2923" s="0">
+        <v>2959</v>
+      </c>
+      <c r="E2923" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2924">
+      <c r="A2924" s="0">
+        <v>2995</v>
+      </c>
+      <c r="B2924" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2924" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2924" s="0">
+        <v>2960</v>
+      </c>
+      <c r="E2924" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2925">
+      <c r="A2925" s="0">
+        <v>2996</v>
+      </c>
+      <c r="B2925" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2925" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2925" s="0">
+        <v>2961</v>
+      </c>
+      <c r="E2925" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2926">
+      <c r="A2926" s="0">
+        <v>2997</v>
+      </c>
+      <c r="B2926" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2926" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2926" s="0">
+        <v>2962</v>
+      </c>
+      <c r="E2926" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2927">
+      <c r="A2927" s="0">
+        <v>2998</v>
+      </c>
+      <c r="B2927" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2927" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2927" s="0">
+        <v>2963</v>
+      </c>
+      <c r="E2927" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2928">
+      <c r="A2928" s="0">
+        <v>2999</v>
+      </c>
+      <c r="B2928" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2928" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2928" s="0">
+        <v>2964</v>
+      </c>
+      <c r="E2928" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2929">
+      <c r="A2929" s="0">
+        <v>3000</v>
+      </c>
+      <c r="B2929" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2929" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2929" s="0">
+        <v>2965</v>
+      </c>
+      <c r="E2929" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2930">
+      <c r="A2930" s="0">
+        <v>3001</v>
+      </c>
+      <c r="B2930" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2930" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2930" s="0">
+        <v>2966</v>
+      </c>
+      <c r="E2930" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2931">
+      <c r="A2931" s="0">
+        <v>3002</v>
+      </c>
+      <c r="B2931" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2931" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2931" s="0">
+        <v>2967</v>
+      </c>
+      <c r="E2931" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2932">
+      <c r="A2932" s="0">
+        <v>3003</v>
+      </c>
+      <c r="B2932" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2932" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2932" s="0">
+        <v>2968</v>
+      </c>
+      <c r="E2932" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2933">
+      <c r="A2933" s="0">
+        <v>3004</v>
+      </c>
+      <c r="B2933" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2933" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2933" s="0">
+        <v>2969</v>
+      </c>
+      <c r="E2933" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2934">
+      <c r="A2934" s="0">
+        <v>3005</v>
+      </c>
+      <c r="B2934" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2934" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2934" s="0">
+        <v>2970</v>
+      </c>
+      <c r="E2934" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2935">
+      <c r="A2935" s="0">
+        <v>3006</v>
+      </c>
+      <c r="B2935" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2935" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2935" s="0">
+        <v>2971</v>
+      </c>
+      <c r="E2935" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2936">
+      <c r="A2936" s="0">
+        <v>3007</v>
+      </c>
+      <c r="B2936" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2936" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2936" s="0">
+        <v>2972</v>
+      </c>
+      <c r="E2936" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2937">
+      <c r="A2937" s="0">
+        <v>3008</v>
+      </c>
+      <c r="B2937" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2937" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2937" s="0">
+        <v>2973</v>
+      </c>
+      <c r="E2937" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2938">
+      <c r="A2938" s="0">
+        <v>3009</v>
+      </c>
+      <c r="B2938" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2938" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2938" s="0">
+        <v>2974</v>
+      </c>
+      <c r="E2938" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2939">
+      <c r="A2939" s="0">
+        <v>3010</v>
+      </c>
+      <c r="B2939" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2939" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2939" s="0">
+        <v>2975</v>
+      </c>
+      <c r="E2939" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2940">
+      <c r="A2940" s="0">
+        <v>3011</v>
+      </c>
+      <c r="B2940" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2940" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2940" s="0">
+        <v>2976</v>
+      </c>
+      <c r="E2940" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2941">
+      <c r="A2941" s="0">
+        <v>3012</v>
+      </c>
+      <c r="B2941" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2941" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2941" s="0">
+        <v>2977</v>
+      </c>
+      <c r="E2941" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2942">
+      <c r="A2942" s="0">
+        <v>3013</v>
+      </c>
+      <c r="B2942" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2942" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2942" s="0">
+        <v>2978</v>
+      </c>
+      <c r="E2942" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2943">
+      <c r="A2943" s="0">
+        <v>3014</v>
+      </c>
+      <c r="B2943" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2943" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2943" s="0">
+        <v>2979</v>
+      </c>
+      <c r="E2943" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2944">
+      <c r="A2944" s="0">
+        <v>3015</v>
+      </c>
+      <c r="B2944" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2944" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2944" s="0">
+        <v>2980</v>
+      </c>
+      <c r="E2944" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2945">
+      <c r="A2945" s="0">
+        <v>3016</v>
+      </c>
+      <c r="B2945" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2945" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2945" s="0">
+        <v>2981</v>
+      </c>
+      <c r="E2945" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2946">
+      <c r="A2946" s="0">
+        <v>3017</v>
+      </c>
+      <c r="B2946" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2946" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2946" s="0">
+        <v>2982</v>
+      </c>
+      <c r="E2946" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2947">
+      <c r="A2947" s="0">
+        <v>3018</v>
+      </c>
+      <c r="B2947" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2947" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2947" s="0">
+        <v>2983</v>
+      </c>
+      <c r="E2947" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2948">
+      <c r="A2948" s="0">
+        <v>3019</v>
+      </c>
+      <c r="B2948" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2948" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2948" s="0">
+        <v>2984</v>
+      </c>
+      <c r="E2948" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2949">
+      <c r="A2949" s="0">
+        <v>3020</v>
+      </c>
+      <c r="B2949" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2949" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2949" s="0">
+        <v>2985</v>
+      </c>
+      <c r="E2949" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2950">
+      <c r="A2950" s="0">
+        <v>3021</v>
+      </c>
+      <c r="B2950" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2950" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2950" s="0">
+        <v>2986</v>
+      </c>
+      <c r="E2950" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2951">
+      <c r="A2951" s="0">
+        <v>3022</v>
+      </c>
+      <c r="B2951" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2951" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2951" s="0">
+        <v>2987</v>
+      </c>
+      <c r="E2951" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2952">
+      <c r="A2952" s="0">
+        <v>3023</v>
+      </c>
+      <c r="B2952" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2952" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2952" s="0">
+        <v>2988</v>
+      </c>
+      <c r="E2952" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2953">
+      <c r="A2953" s="0">
+        <v>3024</v>
+      </c>
+      <c r="B2953" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2953" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2953" s="0">
+        <v>2989</v>
+      </c>
+      <c r="E2953" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2954">
+      <c r="A2954" s="0">
+        <v>3025</v>
+      </c>
+      <c r="B2954" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2954" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2954" s="0">
+        <v>2990</v>
+      </c>
+      <c r="E2954" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2955">
+      <c r="A2955" s="0">
+        <v>3026</v>
+      </c>
+      <c r="B2955" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2955" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2955" s="0">
+        <v>2991</v>
+      </c>
+      <c r="E2955" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2956">
+      <c r="A2956" s="0">
+        <v>3027</v>
+      </c>
+      <c r="B2956" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2956" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2956" s="0">
+        <v>2992</v>
+      </c>
+      <c r="E2956" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2957">
+      <c r="A2957" s="0">
+        <v>3028</v>
+      </c>
+      <c r="B2957" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2957" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2957" s="0">
+        <v>2993</v>
+      </c>
+      <c r="E2957" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2958">
+      <c r="A2958" s="0">
+        <v>3029</v>
+      </c>
+      <c r="B2958" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2958" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2958" s="0">
+        <v>2994</v>
+      </c>
+      <c r="E2958" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2959">
+      <c r="A2959" s="0">
+        <v>3030</v>
+      </c>
+      <c r="B2959" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2959" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2959" s="0">
+        <v>2995</v>
+      </c>
+      <c r="E2959" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2960">
+      <c r="A2960" s="0">
+        <v>3031</v>
+      </c>
+      <c r="B2960" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2960" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2960" s="0">
+        <v>2996</v>
+      </c>
+      <c r="E2960" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2961">
+      <c r="A2961" s="0">
+        <v>3032</v>
+      </c>
+      <c r="B2961" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2961" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2961" s="0">
+        <v>2997</v>
+      </c>
+      <c r="E2961" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2962">
+      <c r="A2962" s="0">
+        <v>3033</v>
+      </c>
+      <c r="B2962" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2962" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2962" s="0">
+        <v>2998</v>
+      </c>
+      <c r="E2962" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2963">
+      <c r="A2963" s="0">
+        <v>3034</v>
+      </c>
+      <c r="B2963" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2963" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2963" s="0">
+        <v>2999</v>
+      </c>
+      <c r="E2963" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2964">
+      <c r="A2964" s="0">
+        <v>3035</v>
+      </c>
+      <c r="B2964" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2964" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2964" s="0">
+        <v>3000</v>
+      </c>
+      <c r="E2964" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2965">
+      <c r="A2965" s="0">
+        <v>3036</v>
+      </c>
+      <c r="B2965" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2965" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2965" s="0">
+        <v>3001</v>
+      </c>
+      <c r="E2965" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2966">
+      <c r="A2966" s="0">
+        <v>3037</v>
+      </c>
+      <c r="B2966" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2966" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2966" s="0">
+        <v>3002</v>
+      </c>
+      <c r="E2966" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2967">
+      <c r="A2967" s="0">
+        <v>3038</v>
+      </c>
+      <c r="B2967" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2967" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2967" s="0">
+        <v>3003</v>
+      </c>
+      <c r="E2967" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2968">
+      <c r="A2968" s="0">
+        <v>3039</v>
+      </c>
+      <c r="B2968" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2968" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2968" s="0">
+        <v>3004</v>
+      </c>
+      <c r="E2968" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2969">
+      <c r="A2969" s="0">
+        <v>3040</v>
+      </c>
+      <c r="B2969" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2969" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2969" s="0">
+        <v>3005</v>
+      </c>
+      <c r="E2969" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2970">
+      <c r="A2970" s="0">
+        <v>3041</v>
+      </c>
+      <c r="B2970" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2970" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2970" s="0">
+        <v>3006</v>
+      </c>
+      <c r="E2970" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2971">
+      <c r="A2971" s="0">
+        <v>3042</v>
+      </c>
+      <c r="B2971" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2971" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2971" s="0">
+        <v>3007</v>
+      </c>
+      <c r="E2971" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2972">
+      <c r="A2972" s="0">
+        <v>3043</v>
+      </c>
+      <c r="B2972" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2972" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2972" s="0">
+        <v>3008</v>
+      </c>
+      <c r="E2972" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2973">
+      <c r="A2973" s="0">
+        <v>3044</v>
+      </c>
+      <c r="B2973" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2973" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2973" s="0">
+        <v>3009</v>
+      </c>
+      <c r="E2973" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2974">
+      <c r="A2974" s="0">
+        <v>3045</v>
+      </c>
+      <c r="B2974" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2974" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2974" s="0">
+        <v>3010</v>
+      </c>
+      <c r="E2974" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2975">
+      <c r="A2975" s="0">
+        <v>3046</v>
+      </c>
+      <c r="B2975" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2975" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2975" s="0">
+        <v>3011</v>
+      </c>
+      <c r="E2975" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2976">
+      <c r="A2976" s="0">
+        <v>3047</v>
+      </c>
+      <c r="B2976" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2976" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2976" s="0">
+        <v>3012</v>
+      </c>
+      <c r="E2976" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2977">
+      <c r="A2977" s="0">
+        <v>3048</v>
+      </c>
+      <c r="B2977" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2977" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2977" s="0">
+        <v>3013</v>
+      </c>
+      <c r="E2977" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2978">
+      <c r="A2978" s="0">
+        <v>3049</v>
+      </c>
+      <c r="B2978" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2978" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2978" s="0">
+        <v>3014</v>
+      </c>
+      <c r="E2978" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2979">
+      <c r="A2979" s="0">
+        <v>3050</v>
+      </c>
+      <c r="B2979" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2979" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2979" s="0">
+        <v>3015</v>
+      </c>
+      <c r="E2979" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2980">
+      <c r="A2980" s="0">
+        <v>3051</v>
+      </c>
+      <c r="B2980" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2980" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2980" s="0">
+        <v>3016</v>
+      </c>
+      <c r="E2980" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2981">
+      <c r="A2981" s="0">
+        <v>3052</v>
+      </c>
+      <c r="B2981" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2981" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2981" s="0">
+        <v>3017</v>
+      </c>
+      <c r="E2981" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2982">
+      <c r="A2982" s="0">
+        <v>3053</v>
+      </c>
+      <c r="B2982" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2982" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2982" s="0">
+        <v>3018</v>
+      </c>
+      <c r="E2982" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2983">
+      <c r="A2983" s="0">
+        <v>3054</v>
+      </c>
+      <c r="B2983" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2983" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2983" s="0">
+        <v>3019</v>
+      </c>
+      <c r="E2983" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2984">
+      <c r="A2984" s="0">
+        <v>3055</v>
+      </c>
+      <c r="B2984" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2984" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2984" s="0">
+        <v>3020</v>
+      </c>
+      <c r="E2984" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2985">
+      <c r="A2985" s="0">
+        <v>3056</v>
+      </c>
+      <c r="B2985" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2985" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2985" s="0">
+        <v>3021</v>
+      </c>
+      <c r="E2985" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2986">
+      <c r="A2986" s="0">
+        <v>3057</v>
+      </c>
+      <c r="B2986" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2986" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2986" s="0">
+        <v>3022</v>
+      </c>
+      <c r="E2986" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2987">
+      <c r="A2987" s="0">
+        <v>3058</v>
+      </c>
+      <c r="B2987" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2987" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2987" s="0">
+        <v>3023</v>
+      </c>
+      <c r="E2987" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2988">
+      <c r="A2988" s="0">
+        <v>3059</v>
+      </c>
+      <c r="B2988" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2988" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2988" s="0">
+        <v>3024</v>
+      </c>
+      <c r="E2988" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2989">
+      <c r="A2989" s="0">
+        <v>3060</v>
+      </c>
+      <c r="B2989" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2989" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2989" s="0">
+        <v>3025</v>
+      </c>
+      <c r="E2989" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2990">
+      <c r="A2990" s="0">
+        <v>3061</v>
+      </c>
+      <c r="B2990" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2990" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2990" s="0">
+        <v>3026</v>
+      </c>
+      <c r="E2990" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2991">
+      <c r="A2991" s="0">
+        <v>3062</v>
+      </c>
+      <c r="B2991" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2991" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2991" s="0">
+        <v>3027</v>
+      </c>
+      <c r="E2991" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2992">
+      <c r="A2992" s="0">
+        <v>3063</v>
+      </c>
+      <c r="B2992" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2992" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2992" s="0">
+        <v>3028</v>
+      </c>
+      <c r="E2992" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2993">
+      <c r="A2993" s="0">
+        <v>3064</v>
+      </c>
+      <c r="B2993" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2993" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2993" s="0">
+        <v>3029</v>
+      </c>
+      <c r="E2993" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2994">
+      <c r="A2994" s="0">
+        <v>3065</v>
+      </c>
+      <c r="B2994" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2994" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2994" s="0">
+        <v>3030</v>
+      </c>
+      <c r="E2994" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2995">
+      <c r="A2995" s="0">
+        <v>3066</v>
+      </c>
+      <c r="B2995" s="0">
+        <v>40</v>
+      </c>
+      <c r="C2995" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2995" s="0">
+        <v>3031</v>
+      </c>
+      <c r="E2995" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2996">
+      <c r="A2996" s="0">
+        <v>3160</v>
+      </c>
+      <c r="B2996" s="0">
+        <v>27</v>
+      </c>
+      <c r="C2996" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2996" s="0">
+        <v>3125</v>
+      </c>
+      <c r="E2996" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2997">
+      <c r="A2997" s="0">
+        <v>3161</v>
+      </c>
+      <c r="B2997" s="0">
+        <v>27</v>
+      </c>
+      <c r="C2997" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2997" s="0">
+        <v>3126</v>
+      </c>
+      <c r="E2997" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2998">
+      <c r="A2998" s="0">
+        <v>3162</v>
+      </c>
+      <c r="B2998" s="0">
+        <v>27</v>
+      </c>
+      <c r="C2998" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2998" s="0">
+        <v>3127</v>
+      </c>
+      <c r="E2998" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2999">
+      <c r="A2999" s="0">
+        <v>3163</v>
+      </c>
+      <c r="B2999" s="0">
+        <v>27</v>
+      </c>
+      <c r="C2999" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2999" s="0">
+        <v>3128</v>
+      </c>
+      <c r="E2999" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3000">
+      <c r="A3000" s="0">
+        <v>3164</v>
+      </c>
+      <c r="B3000" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3000" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3000" s="0">
+        <v>3129</v>
+      </c>
+      <c r="E3000" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3001">
+      <c r="A3001" s="0">
+        <v>3165</v>
+      </c>
+      <c r="B3001" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3001" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3001" s="0">
+        <v>3130</v>
+      </c>
+      <c r="E3001" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3002">
+      <c r="A3002" s="0">
+        <v>3166</v>
+      </c>
+      <c r="B3002" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3002" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3002" s="0">
+        <v>3131</v>
+      </c>
+      <c r="E3002" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3003">
+      <c r="A3003" s="0">
+        <v>3167</v>
+      </c>
+      <c r="B3003" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3003" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3003" s="0">
+        <v>3132</v>
+      </c>
+      <c r="E3003" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3004">
+      <c r="A3004" s="0">
+        <v>3168</v>
+      </c>
+      <c r="B3004" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3004" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3004" s="0">
+        <v>3133</v>
+      </c>
+      <c r="E3004" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3005">
+      <c r="A3005" s="0">
+        <v>3169</v>
+      </c>
+      <c r="B3005" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3005" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3005" s="0">
+        <v>3134</v>
+      </c>
+      <c r="E3005" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3006">
+      <c r="A3006" s="0">
+        <v>3170</v>
+      </c>
+      <c r="B3006" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3006" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3006" s="0">
+        <v>3135</v>
+      </c>
+      <c r="E3006" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3007">
+      <c r="A3007" s="0">
+        <v>3171</v>
+      </c>
+      <c r="B3007" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3007" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3007" s="0">
+        <v>3136</v>
+      </c>
+      <c r="E3007" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3008">
+      <c r="A3008" s="0">
+        <v>3172</v>
+      </c>
+      <c r="B3008" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3008" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3008" s="0">
+        <v>3137</v>
+      </c>
+      <c r="E3008" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3009">
+      <c r="A3009" s="0">
+        <v>3173</v>
+      </c>
+      <c r="B3009" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3009" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3009" s="0">
+        <v>3138</v>
+      </c>
+      <c r="E3009" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3010">
+      <c r="A3010" s="0">
+        <v>3174</v>
+      </c>
+      <c r="B3010" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3010" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3010" s="0">
+        <v>3139</v>
+      </c>
+      <c r="E3010" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3011">
+      <c r="A3011" s="0">
+        <v>3175</v>
+      </c>
+      <c r="B3011" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3011" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3011" s="0">
+        <v>3140</v>
+      </c>
+      <c r="E3011" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3012">
+      <c r="A3012" s="0">
+        <v>3176</v>
+      </c>
+      <c r="B3012" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3012" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3012" s="0">
+        <v>3141</v>
+      </c>
+      <c r="E3012" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3013">
+      <c r="A3013" s="0">
+        <v>3177</v>
+      </c>
+      <c r="B3013" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3013" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3013" s="0">
+        <v>3142</v>
+      </c>
+      <c r="E3013" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3014">
+      <c r="A3014" s="0">
+        <v>3178</v>
+      </c>
+      <c r="B3014" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3014" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3014" s="0">
+        <v>3143</v>
+      </c>
+      <c r="E3014" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3015">
+      <c r="A3015" s="0">
+        <v>3179</v>
+      </c>
+      <c r="B3015" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3015" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3015" s="0">
+        <v>3144</v>
+      </c>
+      <c r="E3015" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3016">
+      <c r="A3016" s="0">
+        <v>3180</v>
+      </c>
+      <c r="B3016" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3016" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3016" s="0">
+        <v>3145</v>
+      </c>
+      <c r="E3016" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3017">
+      <c r="A3017" s="0">
+        <v>3181</v>
+      </c>
+      <c r="B3017" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3017" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3017" s="0">
+        <v>3146</v>
+      </c>
+      <c r="E3017" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3018">
+      <c r="A3018" s="0">
+        <v>3255</v>
+      </c>
+      <c r="B3018" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3018" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3018" s="0">
+        <v>3220</v>
+      </c>
+      <c r="E3018" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3019">
+      <c r="A3019" s="0">
+        <v>3256</v>
+      </c>
+      <c r="B3019" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3019" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3019" s="0">
+        <v>3221</v>
+      </c>
+      <c r="E3019" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3020">
+      <c r="A3020" s="0">
+        <v>3257</v>
+      </c>
+      <c r="B3020" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3020" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3020" s="0">
+        <v>3222</v>
+      </c>
+      <c r="E3020" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3021">
+      <c r="A3021" s="0">
+        <v>3258</v>
+      </c>
+      <c r="B3021" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3021" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3021" s="0">
+        <v>3223</v>
+      </c>
+      <c r="E3021" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3022">
+      <c r="A3022" s="0">
+        <v>3259</v>
+      </c>
+      <c r="B3022" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3022" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3022" s="0">
+        <v>3224</v>
+      </c>
+      <c r="E3022" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3023">
+      <c r="A3023" s="0">
+        <v>3260</v>
+      </c>
+      <c r="B3023" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3023" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3023" s="0">
+        <v>3225</v>
+      </c>
+      <c r="E3023" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3024">
+      <c r="A3024" s="0">
+        <v>3261</v>
+      </c>
+      <c r="B3024" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3024" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3024" s="0">
+        <v>3226</v>
+      </c>
+      <c r="E3024" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3025">
+      <c r="A3025" s="0">
+        <v>3262</v>
+      </c>
+      <c r="B3025" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3025" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3025" s="0">
+        <v>3227</v>
+      </c>
+      <c r="E3025" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3026">
+      <c r="A3026" s="0">
+        <v>3263</v>
+      </c>
+      <c r="B3026" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3026" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3026" s="0">
+        <v>3228</v>
+      </c>
+      <c r="E3026" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3027">
+      <c r="A3027" s="0">
+        <v>3264</v>
+      </c>
+      <c r="B3027" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3027" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3027" s="0">
+        <v>3229</v>
+      </c>
+      <c r="E3027" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3028">
+      <c r="A3028" s="0">
+        <v>3265</v>
+      </c>
+      <c r="B3028" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3028" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3028" s="0">
+        <v>3230</v>
+      </c>
+      <c r="E3028" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3029">
+      <c r="A3029" s="0">
+        <v>3266</v>
+      </c>
+      <c r="B3029" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3029" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3029" s="0">
+        <v>3231</v>
+      </c>
+      <c r="E3029" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3030">
+      <c r="A3030" s="0">
+        <v>3267</v>
+      </c>
+      <c r="B3030" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3030" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3030" s="0">
+        <v>3232</v>
+      </c>
+      <c r="E3030" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3031">
+      <c r="A3031" s="0">
+        <v>3268</v>
+      </c>
+      <c r="B3031" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3031" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3031" s="0">
+        <v>3233</v>
+      </c>
+      <c r="E3031" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3032">
+      <c r="A3032" s="0">
+        <v>3269</v>
+      </c>
+      <c r="B3032" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3032" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3032" s="0">
+        <v>3234</v>
+      </c>
+      <c r="E3032" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3033">
+      <c r="A3033" s="0">
+        <v>3270</v>
+      </c>
+      <c r="B3033" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3033" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3033" s="0">
+        <v>3235</v>
+      </c>
+      <c r="E3033" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3034">
+      <c r="A3034" s="0">
+        <v>3271</v>
+      </c>
+      <c r="B3034" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3034" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3034" s="0">
+        <v>3236</v>
+      </c>
+      <c r="E3034" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3035">
+      <c r="A3035" s="0">
+        <v>3272</v>
+      </c>
+      <c r="B3035" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3035" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3035" s="0">
+        <v>3237</v>
+      </c>
+      <c r="E3035" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3036">
+      <c r="A3036" s="0">
+        <v>3273</v>
+      </c>
+      <c r="B3036" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3036" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3036" s="0">
+        <v>3238</v>
+      </c>
+      <c r="E3036" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3037">
+      <c r="A3037" s="0">
+        <v>3274</v>
+      </c>
+      <c r="B3037" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3037" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3037" s="0">
+        <v>3239</v>
+      </c>
+      <c r="E3037" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3038">
+      <c r="A3038" s="0">
+        <v>3275</v>
+      </c>
+      <c r="B3038" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3038" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3038" s="0">
+        <v>3240</v>
+      </c>
+      <c r="E3038" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3039">
+      <c r="A3039" s="0">
+        <v>3276</v>
+      </c>
+      <c r="B3039" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3039" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3039" s="0">
+        <v>3241</v>
+      </c>
+      <c r="E3039" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3040">
+      <c r="A3040" s="0">
+        <v>3277</v>
+      </c>
+      <c r="B3040" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3040" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3040" s="0">
+        <v>3242</v>
+      </c>
+      <c r="E3040" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3041">
+      <c r="A3041" s="0">
+        <v>3278</v>
+      </c>
+      <c r="B3041" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3041" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3041" s="0">
+        <v>3243</v>
+      </c>
+      <c r="E3041" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3042">
+      <c r="A3042" s="0">
+        <v>3279</v>
+      </c>
+      <c r="B3042" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3042" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3042" s="0">
+        <v>3244</v>
+      </c>
+      <c r="E3042" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3043">
+      <c r="A3043" s="0">
+        <v>3280</v>
+      </c>
+      <c r="B3043" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3043" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3043" s="0">
+        <v>3245</v>
+      </c>
+      <c r="E3043" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3044">
+      <c r="A3044" s="0">
+        <v>3281</v>
+      </c>
+      <c r="B3044" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3044" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3044" s="0">
+        <v>3246</v>
+      </c>
+      <c r="E3044" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3045">
+      <c r="A3045" s="0">
+        <v>3282</v>
+      </c>
+      <c r="B3045" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3045" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3045" s="0">
+        <v>3247</v>
+      </c>
+      <c r="E3045" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3046">
+      <c r="A3046" s="0">
+        <v>3283</v>
+      </c>
+      <c r="B3046" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3046" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3046" s="0">
+        <v>3248</v>
+      </c>
+      <c r="E3046" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3047">
+      <c r="A3047" s="0">
+        <v>3284</v>
+      </c>
+      <c r="B3047" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3047" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3047" s="0">
+        <v>3249</v>
+      </c>
+      <c r="E3047" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3048">
+      <c r="A3048" s="0">
+        <v>3285</v>
+      </c>
+      <c r="B3048" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3048" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3048" s="0">
+        <v>3250</v>
+      </c>
+      <c r="E3048" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3049">
+      <c r="A3049" s="0">
+        <v>3286</v>
+      </c>
+      <c r="B3049" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3049" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3049" s="0">
+        <v>3251</v>
+      </c>
+      <c r="E3049" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3050">
+      <c r="A3050" s="0">
+        <v>3287</v>
+      </c>
+      <c r="B3050" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3050" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3050" s="0">
+        <v>3252</v>
+      </c>
+      <c r="E3050" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3051">
+      <c r="A3051" s="0">
+        <v>3288</v>
+      </c>
+      <c r="B3051" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3051" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3051" s="0">
+        <v>3253</v>
+      </c>
+      <c r="E3051" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3052">
+      <c r="A3052" s="0">
+        <v>3289</v>
+      </c>
+      <c r="B3052" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3052" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3052" s="0">
+        <v>3254</v>
+      </c>
+      <c r="E3052" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3053">
+      <c r="A3053" s="0">
+        <v>3290</v>
+      </c>
+      <c r="B3053" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3053" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3053" s="0">
+        <v>3255</v>
+      </c>
+      <c r="E3053" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3054">
+      <c r="A3054" s="0">
+        <v>3291</v>
+      </c>
+      <c r="B3054" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3054" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3054" s="0">
+        <v>3256</v>
+      </c>
+      <c r="E3054" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3055">
+      <c r="A3055" s="0">
+        <v>3292</v>
+      </c>
+      <c r="B3055" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3055" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3055" s="0">
+        <v>3257</v>
+      </c>
+      <c r="E3055" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3056">
+      <c r="A3056" s="0">
+        <v>3293</v>
+      </c>
+      <c r="B3056" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3056" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3056" s="0">
+        <v>3258</v>
+      </c>
+      <c r="E3056" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3057">
+      <c r="A3057" s="0">
+        <v>3294</v>
+      </c>
+      <c r="B3057" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3057" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3057" s="0">
+        <v>3259</v>
+      </c>
+      <c r="E3057" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3058">
+      <c r="A3058" s="0">
+        <v>3295</v>
+      </c>
+      <c r="B3058" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3058" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3058" s="0">
+        <v>3260</v>
+      </c>
+      <c r="E3058" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3059">
+      <c r="A3059" s="0">
+        <v>3296</v>
+      </c>
+      <c r="B3059" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3059" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3059" s="0">
+        <v>3261</v>
+      </c>
+      <c r="E3059" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3060">
+      <c r="A3060" s="0">
+        <v>3297</v>
+      </c>
+      <c r="B3060" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3060" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3060" s="0">
+        <v>3262</v>
+      </c>
+      <c r="E3060" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3061">
+      <c r="A3061" s="0">
+        <v>3298</v>
+      </c>
+      <c r="B3061" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3061" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3061" s="0">
+        <v>3263</v>
+      </c>
+      <c r="E3061" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3062">
+      <c r="A3062" s="0">
+        <v>3299</v>
+      </c>
+      <c r="B3062" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3062" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3062" s="0">
+        <v>3264</v>
+      </c>
+      <c r="E3062" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3063">
+      <c r="A3063" s="0">
+        <v>3300</v>
+      </c>
+      <c r="B3063" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3063" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3063" s="0">
+        <v>3265</v>
+      </c>
+      <c r="E3063" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3064">
+      <c r="A3064" s="0">
+        <v>3301</v>
+      </c>
+      <c r="B3064" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3064" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3064" s="0">
+        <v>3266</v>
+      </c>
+      <c r="E3064" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3065">
+      <c r="A3065" s="0">
+        <v>3302</v>
+      </c>
+      <c r="B3065" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3065" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3065" s="0">
+        <v>3267</v>
+      </c>
+      <c r="E3065" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3066">
+      <c r="A3066" s="0">
+        <v>3303</v>
+      </c>
+      <c r="B3066" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3066" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3066" s="0">
+        <v>3268</v>
+      </c>
+      <c r="E3066" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3067">
+      <c r="A3067" s="0">
+        <v>3304</v>
+      </c>
+      <c r="B3067" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3067" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3067" s="0">
+        <v>3269</v>
+      </c>
+      <c r="E3067" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3068">
+      <c r="A3068" s="0">
+        <v>3305</v>
+      </c>
+      <c r="B3068" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3068" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3068" s="0">
+        <v>3270</v>
+      </c>
+      <c r="E3068" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3069">
+      <c r="A3069" s="0">
+        <v>3306</v>
+      </c>
+      <c r="B3069" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3069" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3069" s="0">
+        <v>3271</v>
+      </c>
+      <c r="E3069" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3070">
+      <c r="A3070" s="0">
+        <v>3307</v>
+      </c>
+      <c r="B3070" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3070" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3070" s="0">
+        <v>3272</v>
+      </c>
+      <c r="E3070" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3071">
+      <c r="A3071" s="0">
+        <v>3308</v>
+      </c>
+      <c r="B3071" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3071" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3071" s="0">
+        <v>3273</v>
+      </c>
+      <c r="E3071" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3072">
+      <c r="A3072" s="0">
+        <v>3309</v>
+      </c>
+      <c r="B3072" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3072" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3072" s="0">
+        <v>3274</v>
+      </c>
+      <c r="E3072" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3073">
+      <c r="A3073" s="0">
+        <v>3310</v>
+      </c>
+      <c r="B3073" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3073" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3073" s="0">
+        <v>3275</v>
+      </c>
+      <c r="E3073" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3074">
+      <c r="A3074" s="0">
+        <v>3311</v>
+      </c>
+      <c r="B3074" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3074" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3074" s="0">
+        <v>3276</v>
+      </c>
+      <c r="E3074" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3075">
+      <c r="A3075" s="0">
+        <v>3312</v>
+      </c>
+      <c r="B3075" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3075" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3075" s="0">
+        <v>3277</v>
+      </c>
+      <c r="E3075" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3076">
+      <c r="A3076" s="0">
+        <v>3313</v>
+      </c>
+      <c r="B3076" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3076" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3076" s="0">
+        <v>3278</v>
+      </c>
+      <c r="E3076" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3077">
+      <c r="A3077" s="0">
+        <v>3314</v>
+      </c>
+      <c r="B3077" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3077" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3077" s="0">
+        <v>3279</v>
+      </c>
+      <c r="E3077" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3078">
+      <c r="A3078" s="0">
+        <v>3315</v>
+      </c>
+      <c r="B3078" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3078" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3078" s="0">
+        <v>3280</v>
+      </c>
+      <c r="E3078" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3079">
+      <c r="A3079" s="0">
+        <v>3316</v>
+      </c>
+      <c r="B3079" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3079" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3079" s="0">
+        <v>3281</v>
+      </c>
+      <c r="E3079" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3080">
+      <c r="A3080" s="0">
+        <v>3317</v>
+      </c>
+      <c r="B3080" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3080" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3080" s="0">
+        <v>3282</v>
+      </c>
+      <c r="E3080" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3081">
+      <c r="A3081" s="0">
+        <v>3318</v>
+      </c>
+      <c r="B3081" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3081" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3081" s="0">
+        <v>3283</v>
+      </c>
+      <c r="E3081" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3082">
+      <c r="A3082" s="0">
+        <v>3319</v>
+      </c>
+      <c r="B3082" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3082" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3082" s="0">
+        <v>3284</v>
+      </c>
+      <c r="E3082" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3083">
+      <c r="A3083" s="0">
+        <v>3320</v>
+      </c>
+      <c r="B3083" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3083" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3083" s="0">
+        <v>3285</v>
+      </c>
+      <c r="E3083" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3084">
+      <c r="A3084" s="0">
+        <v>3321</v>
+      </c>
+      <c r="B3084" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3084" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3084" s="0">
+        <v>3286</v>
+      </c>
+      <c r="E3084" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3085">
+      <c r="A3085" s="0">
+        <v>3322</v>
+      </c>
+      <c r="B3085" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3085" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3085" s="0">
+        <v>3287</v>
+      </c>
+      <c r="E3085" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3086">
+      <c r="A3086" s="0">
+        <v>3323</v>
+      </c>
+      <c r="B3086" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3086" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3086" s="0">
+        <v>3288</v>
+      </c>
+      <c r="E3086" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3087">
+      <c r="A3087" s="0">
+        <v>3324</v>
+      </c>
+      <c r="B3087" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3087" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3087" s="0">
+        <v>3289</v>
+      </c>
+      <c r="E3087" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3088">
+      <c r="A3088" s="0">
+        <v>3325</v>
+      </c>
+      <c r="B3088" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3088" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3088" s="0">
+        <v>3290</v>
+      </c>
+      <c r="E3088" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3089">
+      <c r="A3089" s="0">
+        <v>3326</v>
+      </c>
+      <c r="B3089" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3089" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3089" s="0">
+        <v>3291</v>
+      </c>
+      <c r="E3089" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3090">
+      <c r="A3090" s="0">
+        <v>3327</v>
+      </c>
+      <c r="B3090" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3090" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3090" s="0">
+        <v>3292</v>
+      </c>
+      <c r="E3090" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3091">
+      <c r="A3091" s="0">
+        <v>3328</v>
+      </c>
+      <c r="B3091" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3091" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3091" s="0">
+        <v>3293</v>
+      </c>
+      <c r="E3091" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3092">
+      <c r="A3092" s="0">
+        <v>3329</v>
+      </c>
+      <c r="B3092" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3092" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3092" s="0">
+        <v>3294</v>
+      </c>
+      <c r="E3092" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3093">
+      <c r="A3093" s="0">
+        <v>3330</v>
+      </c>
+      <c r="B3093" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3093" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3093" s="0">
+        <v>3295</v>
+      </c>
+      <c r="E3093" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3094">
+      <c r="A3094" s="0">
+        <v>3331</v>
+      </c>
+      <c r="B3094" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3094" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3094" s="0">
+        <v>3296</v>
+      </c>
+      <c r="E3094" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3095">
+      <c r="A3095" s="0">
+        <v>3332</v>
+      </c>
+      <c r="B3095" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3095" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3095" s="0">
+        <v>3297</v>
+      </c>
+      <c r="E3095" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3096">
+      <c r="A3096" s="0">
+        <v>3333</v>
+      </c>
+      <c r="B3096" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3096" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3096" s="0">
+        <v>3298</v>
+      </c>
+      <c r="E3096" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3097">
+      <c r="A3097" s="0">
+        <v>3334</v>
+      </c>
+      <c r="B3097" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3097" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3097" s="0">
+        <v>3299</v>
+      </c>
+      <c r="E3097" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3098">
+      <c r="A3098" s="0">
+        <v>3335</v>
+      </c>
+      <c r="B3098" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3098" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3098" s="0">
+        <v>3300</v>
+      </c>
+      <c r="E3098" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3099">
+      <c r="A3099" s="0">
+        <v>3336</v>
+      </c>
+      <c r="B3099" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3099" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3099" s="0">
+        <v>3301</v>
+      </c>
+      <c r="E3099" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3100">
+      <c r="A3100" s="0">
+        <v>3337</v>
+      </c>
+      <c r="B3100" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3100" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3100" s="0">
+        <v>3302</v>
+      </c>
+      <c r="E3100" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3101">
+      <c r="A3101" s="0">
+        <v>3338</v>
+      </c>
+      <c r="B3101" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3101" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3101" s="0">
+        <v>3303</v>
+      </c>
+      <c r="E3101" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3102">
+      <c r="A3102" s="0">
+        <v>3339</v>
+      </c>
+      <c r="B3102" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3102" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3102" s="0">
+        <v>3304</v>
+      </c>
+      <c r="E3102" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3103">
+      <c r="A3103" s="0">
+        <v>3340</v>
+      </c>
+      <c r="B3103" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3103" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3103" s="0">
+        <v>3305</v>
+      </c>
+      <c r="E3103" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3104">
+      <c r="A3104" s="0">
+        <v>3341</v>
+      </c>
+      <c r="B3104" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3104" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3104" s="0">
+        <v>3306</v>
+      </c>
+      <c r="E3104" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3105">
+      <c r="A3105" s="0">
+        <v>3342</v>
+      </c>
+      <c r="B3105" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3105" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3105" s="0">
+        <v>3307</v>
+      </c>
+      <c r="E3105" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3106">
+      <c r="A3106" s="0">
+        <v>3343</v>
+      </c>
+      <c r="B3106" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3106" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3106" s="0">
+        <v>3308</v>
+      </c>
+      <c r="E3106" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3107">
+      <c r="A3107" s="0">
+        <v>3344</v>
+      </c>
+      <c r="B3107" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3107" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3107" s="0">
+        <v>3309</v>
+      </c>
+      <c r="E3107" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3108">
+      <c r="A3108" s="0">
+        <v>3345</v>
+      </c>
+      <c r="B3108" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3108" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3108" s="0">
+        <v>3310</v>
+      </c>
+      <c r="E3108" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3109">
+      <c r="A3109" s="0">
+        <v>3346</v>
+      </c>
+      <c r="B3109" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3109" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3109" s="0">
+        <v>3311</v>
+      </c>
+      <c r="E3109" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3110">
+      <c r="A3110" s="0">
+        <v>3347</v>
+      </c>
+      <c r="B3110" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3110" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3110" s="0">
+        <v>3312</v>
+      </c>
+      <c r="E3110" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3111">
+      <c r="A3111" s="0">
+        <v>3182</v>
+      </c>
+      <c r="B3111" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3111" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3111" s="0">
+        <v>3147</v>
+      </c>
+      <c r="E3111" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3112">
+      <c r="A3112" s="0">
+        <v>3183</v>
+      </c>
+      <c r="B3112" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3112" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3112" s="0">
+        <v>3148</v>
+      </c>
+      <c r="E3112" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3113">
+      <c r="A3113" s="0">
+        <v>3184</v>
+      </c>
+      <c r="B3113" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3113" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3113" s="0">
+        <v>3149</v>
+      </c>
+      <c r="E3113" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3114">
+      <c r="A3114" s="0">
+        <v>3185</v>
+      </c>
+      <c r="B3114" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3114" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3114" s="0">
+        <v>3150</v>
+      </c>
+      <c r="E3114" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3115">
+      <c r="A3115" s="0">
+        <v>3186</v>
+      </c>
+      <c r="B3115" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3115" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3115" s="0">
+        <v>3151</v>
+      </c>
+      <c r="E3115" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3116">
+      <c r="A3116" s="0">
+        <v>3187</v>
+      </c>
+      <c r="B3116" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3116" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3116" s="0">
+        <v>3152</v>
+      </c>
+      <c r="E3116" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3117">
+      <c r="A3117" s="0">
+        <v>3188</v>
+      </c>
+      <c r="B3117" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3117" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3117" s="0">
+        <v>3153</v>
+      </c>
+      <c r="E3117" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3118">
+      <c r="A3118" s="0">
+        <v>3189</v>
+      </c>
+      <c r="B3118" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3118" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3118" s="0">
+        <v>3154</v>
+      </c>
+      <c r="E3118" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3119">
+      <c r="A3119" s="0">
+        <v>3190</v>
+      </c>
+      <c r="B3119" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3119" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3119" s="0">
+        <v>3155</v>
+      </c>
+      <c r="E3119" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3120">
+      <c r="A3120" s="0">
+        <v>3191</v>
+      </c>
+      <c r="B3120" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3120" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3120" s="0">
+        <v>3156</v>
+      </c>
+      <c r="E3120" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3121">
+      <c r="A3121" s="0">
+        <v>3192</v>
+      </c>
+      <c r="B3121" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3121" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3121" s="0">
+        <v>3157</v>
+      </c>
+      <c r="E3121" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3122">
+      <c r="A3122" s="0">
+        <v>3193</v>
+      </c>
+      <c r="B3122" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3122" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3122" s="0">
+        <v>3158</v>
+      </c>
+      <c r="E3122" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3123">
+      <c r="A3123" s="0">
+        <v>3194</v>
+      </c>
+      <c r="B3123" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3123" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3123" s="0">
+        <v>3159</v>
+      </c>
+      <c r="E3123" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3124">
+      <c r="A3124" s="0">
+        <v>3195</v>
+      </c>
+      <c r="B3124" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3124" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3124" s="0">
+        <v>3160</v>
+      </c>
+      <c r="E3124" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3125">
+      <c r="A3125" s="0">
+        <v>3196</v>
+      </c>
+      <c r="B3125" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3125" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3125" s="0">
+        <v>3161</v>
+      </c>
+      <c r="E3125" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3126">
+      <c r="A3126" s="0">
+        <v>3197</v>
+      </c>
+      <c r="B3126" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3126" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3126" s="0">
+        <v>3162</v>
+      </c>
+      <c r="E3126" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3127">
+      <c r="A3127" s="0">
+        <v>3198</v>
+      </c>
+      <c r="B3127" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3127" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3127" s="0">
+        <v>3163</v>
+      </c>
+      <c r="E3127" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3128">
+      <c r="A3128" s="0">
+        <v>3199</v>
+      </c>
+      <c r="B3128" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3128" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3128" s="0">
+        <v>3164</v>
+      </c>
+      <c r="E3128" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3129">
+      <c r="A3129" s="0">
+        <v>3200</v>
+      </c>
+      <c r="B3129" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3129" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3129" s="0">
+        <v>3165</v>
+      </c>
+      <c r="E3129" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3130">
+      <c r="A3130" s="0">
+        <v>3201</v>
+      </c>
+      <c r="B3130" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3130" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3130" s="0">
+        <v>3166</v>
+      </c>
+      <c r="E3130" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3131">
+      <c r="A3131" s="0">
+        <v>3202</v>
+      </c>
+      <c r="B3131" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3131" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3131" s="0">
+        <v>3167</v>
+      </c>
+      <c r="E3131" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3132">
+      <c r="A3132" s="0">
+        <v>3203</v>
+      </c>
+      <c r="B3132" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3132" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3132" s="0">
+        <v>3168</v>
+      </c>
+      <c r="E3132" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3133">
+      <c r="A3133" s="0">
+        <v>3204</v>
+      </c>
+      <c r="B3133" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3133" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3133" s="0">
+        <v>3169</v>
+      </c>
+      <c r="E3133" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3134">
+      <c r="A3134" s="0">
+        <v>3205</v>
+      </c>
+      <c r="B3134" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3134" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3134" s="0">
+        <v>3170</v>
+      </c>
+      <c r="E3134" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3135">
+      <c r="A3135" s="0">
+        <v>3206</v>
+      </c>
+      <c r="B3135" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3135" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3135" s="0">
+        <v>3171</v>
+      </c>
+      <c r="E3135" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3136">
+      <c r="A3136" s="0">
+        <v>3207</v>
+      </c>
+      <c r="B3136" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3136" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3136" s="0">
+        <v>3172</v>
+      </c>
+      <c r="E3136" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3137">
+      <c r="A3137" s="0">
+        <v>3208</v>
+      </c>
+      <c r="B3137" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3137" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3137" s="0">
+        <v>3173</v>
+      </c>
+      <c r="E3137" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3138">
+      <c r="A3138" s="0">
+        <v>3209</v>
+      </c>
+      <c r="B3138" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3138" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3138" s="0">
+        <v>3174</v>
+      </c>
+      <c r="E3138" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3139">
+      <c r="A3139" s="0">
+        <v>3210</v>
+      </c>
+      <c r="B3139" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3139" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3139" s="0">
+        <v>3175</v>
+      </c>
+      <c r="E3139" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3140">
+      <c r="A3140" s="0">
+        <v>3211</v>
+      </c>
+      <c r="B3140" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3140" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3140" s="0">
+        <v>3176</v>
+      </c>
+      <c r="E3140" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3141">
+      <c r="A3141" s="0">
+        <v>3212</v>
+      </c>
+      <c r="B3141" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3141" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3141" s="0">
+        <v>3177</v>
+      </c>
+      <c r="E3141" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3142">
+      <c r="A3142" s="0">
+        <v>3213</v>
+      </c>
+      <c r="B3142" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3142" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3142" s="0">
+        <v>3178</v>
+      </c>
+      <c r="E3142" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3143">
+      <c r="A3143" s="0">
+        <v>3214</v>
+      </c>
+      <c r="B3143" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3143" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3143" s="0">
+        <v>3179</v>
+      </c>
+      <c r="E3143" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3144">
+      <c r="A3144" s="0">
+        <v>3215</v>
+      </c>
+      <c r="B3144" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3144" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3144" s="0">
+        <v>3180</v>
+      </c>
+      <c r="E3144" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3145">
+      <c r="A3145" s="0">
+        <v>3216</v>
+      </c>
+      <c r="B3145" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3145" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3145" s="0">
+        <v>3181</v>
+      </c>
+      <c r="E3145" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3146">
+      <c r="A3146" s="0">
+        <v>3217</v>
+      </c>
+      <c r="B3146" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3146" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3146" s="0">
+        <v>3182</v>
+      </c>
+      <c r="E3146" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3147">
+      <c r="A3147" s="0">
+        <v>3218</v>
+      </c>
+      <c r="B3147" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3147" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3147" s="0">
+        <v>3183</v>
+      </c>
+      <c r="E3147" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3148">
+      <c r="A3148" s="0">
+        <v>3219</v>
+      </c>
+      <c r="B3148" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3148" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3148" s="0">
+        <v>3184</v>
+      </c>
+      <c r="E3148" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3149">
+      <c r="A3149" s="0">
+        <v>3220</v>
+      </c>
+      <c r="B3149" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3149" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3149" s="0">
+        <v>3185</v>
+      </c>
+      <c r="E3149" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3150">
+      <c r="A3150" s="0">
+        <v>3221</v>
+      </c>
+      <c r="B3150" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3150" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3150" s="0">
+        <v>3186</v>
+      </c>
+      <c r="E3150" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3151">
+      <c r="A3151" s="0">
+        <v>3222</v>
+      </c>
+      <c r="B3151" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3151" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3151" s="0">
+        <v>3187</v>
+      </c>
+      <c r="E3151" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3152">
+      <c r="A3152" s="0">
+        <v>3223</v>
+      </c>
+      <c r="B3152" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3152" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3152" s="0">
+        <v>3188</v>
+      </c>
+      <c r="E3152" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3153">
+      <c r="A3153" s="0">
+        <v>3224</v>
+      </c>
+      <c r="B3153" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3153" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3153" s="0">
+        <v>3189</v>
+      </c>
+      <c r="E3153" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3154">
+      <c r="A3154" s="0">
+        <v>3225</v>
+      </c>
+      <c r="B3154" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3154" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3154" s="0">
+        <v>3190</v>
+      </c>
+      <c r="E3154" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3155">
+      <c r="A3155" s="0">
+        <v>3226</v>
+      </c>
+      <c r="B3155" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3155" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3155" s="0">
+        <v>3191</v>
+      </c>
+      <c r="E3155" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3156">
+      <c r="A3156" s="0">
+        <v>3227</v>
+      </c>
+      <c r="B3156" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3156" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3156" s="0">
+        <v>3192</v>
+      </c>
+      <c r="E3156" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3157">
+      <c r="A3157" s="0">
+        <v>3228</v>
+      </c>
+      <c r="B3157" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3157" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3157" s="0">
+        <v>3193</v>
+      </c>
+      <c r="E3157" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3158">
+      <c r="A3158" s="0">
+        <v>3229</v>
+      </c>
+      <c r="B3158" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3158" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3158" s="0">
+        <v>3194</v>
+      </c>
+      <c r="E3158" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3159">
+      <c r="A3159" s="0">
+        <v>3230</v>
+      </c>
+      <c r="B3159" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3159" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3159" s="0">
+        <v>3195</v>
+      </c>
+      <c r="E3159" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3160">
+      <c r="A3160" s="0">
+        <v>3231</v>
+      </c>
+      <c r="B3160" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3160" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3160" s="0">
+        <v>3196</v>
+      </c>
+      <c r="E3160" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3161">
+      <c r="A3161" s="0">
+        <v>3232</v>
+      </c>
+      <c r="B3161" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3161" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3161" s="0">
+        <v>3197</v>
+      </c>
+      <c r="E3161" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3162">
+      <c r="A3162" s="0">
+        <v>3233</v>
+      </c>
+      <c r="B3162" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3162" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3162" s="0">
+        <v>3198</v>
+      </c>
+      <c r="E3162" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3163">
+      <c r="A3163" s="0">
+        <v>3234</v>
+      </c>
+      <c r="B3163" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3163" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3163" s="0">
+        <v>3199</v>
+      </c>
+      <c r="E3163" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3164">
+      <c r="A3164" s="0">
+        <v>3235</v>
+      </c>
+      <c r="B3164" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3164" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3164" s="0">
+        <v>3200</v>
+      </c>
+      <c r="E3164" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3165">
+      <c r="A3165" s="0">
+        <v>3236</v>
+      </c>
+      <c r="B3165" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3165" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3165" s="0">
+        <v>3201</v>
+      </c>
+      <c r="E3165" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3166">
+      <c r="A3166" s="0">
+        <v>3237</v>
+      </c>
+      <c r="B3166" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3166" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3166" s="0">
+        <v>3202</v>
+      </c>
+      <c r="E3166" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3167">
+      <c r="A3167" s="0">
+        <v>3238</v>
+      </c>
+      <c r="B3167" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3167" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3167" s="0">
+        <v>3203</v>
+      </c>
+      <c r="E3167" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3168">
+      <c r="A3168" s="0">
+        <v>3239</v>
+      </c>
+      <c r="B3168" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3168" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3168" s="0">
+        <v>3204</v>
+      </c>
+      <c r="E3168" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3169">
+      <c r="A3169" s="0">
+        <v>3240</v>
+      </c>
+      <c r="B3169" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3169" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3169" s="0">
+        <v>3205</v>
+      </c>
+      <c r="E3169" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3170">
+      <c r="A3170" s="0">
+        <v>3241</v>
+      </c>
+      <c r="B3170" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3170" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3170" s="0">
+        <v>3206</v>
+      </c>
+      <c r="E3170" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3171">
+      <c r="A3171" s="0">
+        <v>3242</v>
+      </c>
+      <c r="B3171" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3171" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3171" s="0">
+        <v>3207</v>
+      </c>
+      <c r="E3171" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3172">
+      <c r="A3172" s="0">
+        <v>3243</v>
+      </c>
+      <c r="B3172" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3172" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3172" s="0">
+        <v>3208</v>
+      </c>
+      <c r="E3172" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3173">
+      <c r="A3173" s="0">
+        <v>3244</v>
+      </c>
+      <c r="B3173" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3173" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3173" s="0">
+        <v>3209</v>
+      </c>
+      <c r="E3173" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3174">
+      <c r="A3174" s="0">
+        <v>3245</v>
+      </c>
+      <c r="B3174" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3174" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3174" s="0">
+        <v>3210</v>
+      </c>
+      <c r="E3174" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3175">
+      <c r="A3175" s="0">
+        <v>3246</v>
+      </c>
+      <c r="B3175" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3175" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3175" s="0">
+        <v>3211</v>
+      </c>
+      <c r="E3175" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3176">
+      <c r="A3176" s="0">
+        <v>3247</v>
+      </c>
+      <c r="B3176" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3176" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3176" s="0">
+        <v>3212</v>
+      </c>
+      <c r="E3176" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3177">
+      <c r="A3177" s="0">
+        <v>3248</v>
+      </c>
+      <c r="B3177" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3177" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3177" s="0">
+        <v>3213</v>
+      </c>
+      <c r="E3177" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3178">
+      <c r="A3178" s="0">
+        <v>3249</v>
+      </c>
+      <c r="B3178" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3178" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3178" s="0">
+        <v>3214</v>
+      </c>
+      <c r="E3178" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3179">
+      <c r="A3179" s="0">
+        <v>3250</v>
+      </c>
+      <c r="B3179" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3179" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3179" s="0">
+        <v>3215</v>
+      </c>
+      <c r="E3179" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3180">
+      <c r="A3180" s="0">
+        <v>3251</v>
+      </c>
+      <c r="B3180" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3180" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3180" s="0">
+        <v>3216</v>
+      </c>
+      <c r="E3180" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3181">
+      <c r="A3181" s="0">
+        <v>3252</v>
+      </c>
+      <c r="B3181" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3181" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3181" s="0">
+        <v>3217</v>
+      </c>
+      <c r="E3181" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3182">
+      <c r="A3182" s="0">
+        <v>3253</v>
+      </c>
+      <c r="B3182" s="0">
+        <v>27</v>
+      </c>
+      <c r="C3182" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3182" s="0">
+        <v>3218</v>
+      </c>
+      <c r="E3182" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3183">
+      <c r="A3183" s="0">
+        <v>3254</v>
+      </c>
+      <c r="B3183" s="0">
+        <v>39</v>
+      </c>
+      <c r="C3183" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3183" s="0">
+        <v>3219</v>
+      </c>
+      <c r="E3183" s="0">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
